--- a/ennusteet_excel/sensitiivisyys/matala_tfr_ennusteet.xlsx
+++ b/ennusteet_excel/sensitiivisyys/matala_tfr_ennusteet.xlsx
@@ -553,621 +553,639 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>989994</v>
+        <v>1004037</v>
       </c>
       <c r="D3" t="n">
-        <v>990024</v>
+        <v>1004037</v>
       </c>
       <c r="E3" t="n">
-        <v>990002</v>
+        <v>1004037</v>
       </c>
       <c r="F3" t="n">
-        <v>990017</v>
+        <v>1004037</v>
       </c>
       <c r="G3" t="n">
-        <v>990009.5</v>
+        <v>1004037</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>963045.8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>967592</v>
-      </c>
-      <c r="E4" t="n">
-        <v>964136.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>966415.5</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>965337.5</v>
-      </c>
-      <c r="H4"/>
+        <v>1004037</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>934450.8</v>
+        <v>977030.7</v>
       </c>
       <c r="D5" t="n">
-        <v>943583.8</v>
+        <v>982050.2</v>
       </c>
       <c r="E5" t="n">
-        <v>936713.75</v>
+        <v>978261</v>
       </c>
       <c r="F5" t="n">
-        <v>941418.25</v>
+        <v>980828.25</v>
       </c>
       <c r="G5" t="n">
-        <v>938951.5</v>
+        <v>979506.5</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>904670.5</v>
+        <v>948385.6</v>
       </c>
       <c r="D6" t="n">
-        <v>918704.7</v>
+        <v>958142.4</v>
       </c>
       <c r="E6" t="n">
-        <v>908159.75</v>
+        <v>950957.75</v>
       </c>
       <c r="F6" t="n">
-        <v>915505.75</v>
+        <v>955886.25</v>
       </c>
       <c r="G6" t="n">
-        <v>911682</v>
+        <v>953602</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>875513.4</v>
+        <v>918678.9</v>
       </c>
       <c r="D7" t="n">
-        <v>895359.2</v>
+        <v>933871.5</v>
       </c>
       <c r="E7" t="n">
-        <v>880480.75</v>
+        <v>922175.75</v>
       </c>
       <c r="F7" t="n">
-        <v>890105.75</v>
+        <v>929995.5</v>
       </c>
       <c r="G7" t="n">
-        <v>885567.5</v>
+        <v>926088.5</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>846501.3</v>
+        <v>889846.7</v>
       </c>
       <c r="D8" t="n">
-        <v>872417.8</v>
+        <v>910215.1</v>
       </c>
       <c r="E8" t="n">
-        <v>852952.5</v>
+        <v>894355.25</v>
       </c>
       <c r="F8" t="n">
-        <v>865272.25</v>
+        <v>904811</v>
       </c>
       <c r="G8" t="n">
-        <v>859351.5</v>
+        <v>899186.5</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>819018.2</v>
+        <v>860881.2</v>
       </c>
       <c r="D9" t="n">
-        <v>850684.8</v>
+        <v>886619.7</v>
       </c>
       <c r="E9" t="n">
-        <v>826383.5</v>
+        <v>866192.5</v>
       </c>
       <c r="F9" t="n">
-        <v>842039</v>
+        <v>879597.25</v>
       </c>
       <c r="G9" t="n">
-        <v>834774</v>
+        <v>872076.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>792774.4</v>
+        <v>832828.7</v>
       </c>
       <c r="D10" t="n">
-        <v>830860.9</v>
+        <v>864829.6</v>
       </c>
       <c r="E10" t="n">
-        <v>801300.75</v>
+        <v>839091.75</v>
       </c>
       <c r="F10" t="n">
-        <v>819866.5</v>
+        <v>855654.25</v>
       </c>
       <c r="G10" t="n">
-        <v>810745</v>
+        <v>846498</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>768442.1</v>
+        <v>805625</v>
       </c>
       <c r="D11" t="n">
-        <v>813123.3</v>
+        <v>843613.5</v>
       </c>
       <c r="E11" t="n">
-        <v>778192.75</v>
+        <v>813457.5</v>
       </c>
       <c r="F11" t="n">
-        <v>800238.75</v>
+        <v>833100.75</v>
       </c>
       <c r="G11" t="n">
-        <v>788893.5</v>
+        <v>821963</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>746723.3</v>
+        <v>780728.9</v>
       </c>
       <c r="D12" t="n">
-        <v>797319.4</v>
+        <v>825209.1</v>
       </c>
       <c r="E12" t="n">
-        <v>756854.75</v>
+        <v>790034</v>
       </c>
       <c r="F12" t="n">
-        <v>783344.75</v>
+        <v>812725</v>
       </c>
       <c r="G12" t="n">
-        <v>769771</v>
+        <v>799054.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>726716.3</v>
+        <v>757451.8</v>
       </c>
       <c r="D13" t="n">
-        <v>785467.5</v>
+        <v>809472.6</v>
       </c>
       <c r="E13" t="n">
-        <v>738877.5</v>
+        <v>768684</v>
       </c>
       <c r="F13" t="n">
-        <v>768958.25</v>
+        <v>794409.25</v>
       </c>
       <c r="G13" t="n">
-        <v>753519</v>
+        <v>779149.5</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>709562</v>
+        <v>738097.9</v>
       </c>
       <c r="D14" t="n">
-        <v>777151.8</v>
+        <v>797269.5</v>
       </c>
       <c r="E14" t="n">
-        <v>724059.75</v>
+        <v>749876</v>
       </c>
       <c r="F14" t="n">
-        <v>757877.25</v>
+        <v>779067.5</v>
       </c>
       <c r="G14" t="n">
-        <v>740480.5</v>
+        <v>762506</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>696076.8</v>
+        <v>721927</v>
       </c>
       <c r="D15" t="n">
-        <v>771586.9</v>
+        <v>788761.6</v>
       </c>
       <c r="E15" t="n">
-        <v>711799.5</v>
+        <v>734954</v>
       </c>
       <c r="F15" t="n">
-        <v>749136.25</v>
+        <v>767833.25</v>
       </c>
       <c r="G15" t="n">
-        <v>729217.5</v>
+        <v>748615</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>681761.8</v>
+        <v>707007.6</v>
       </c>
       <c r="D16" t="n">
-        <v>766851.6</v>
+        <v>783393.4</v>
       </c>
       <c r="E16" t="n">
-        <v>698297</v>
+        <v>721448</v>
       </c>
       <c r="F16" t="n">
-        <v>740425.25</v>
+        <v>758662.25</v>
       </c>
       <c r="G16" t="n">
-        <v>717840.5</v>
+        <v>737595.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>664794.1</v>
+        <v>691788.5</v>
       </c>
       <c r="D17" t="n">
-        <v>757888.7</v>
+        <v>777943.2</v>
       </c>
       <c r="E17" t="n">
-        <v>682691</v>
+        <v>708234.75</v>
       </c>
       <c r="F17" t="n">
-        <v>728977.25</v>
+        <v>749508.5</v>
       </c>
       <c r="G17" t="n">
-        <v>703537</v>
+        <v>726268.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>651807.7</v>
+        <v>673063.8</v>
       </c>
       <c r="D18" t="n">
-        <v>754068</v>
+        <v>768184.6</v>
       </c>
       <c r="E18" t="n">
-        <v>671935.5</v>
+        <v>692296.5</v>
       </c>
       <c r="F18" t="n">
-        <v>722540.5</v>
+        <v>737387</v>
       </c>
       <c r="G18" t="n">
-        <v>694652</v>
+        <v>711345</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>639631.3</v>
+        <v>660122.4</v>
       </c>
       <c r="D19" t="n">
-        <v>752105.2</v>
+        <v>763550.6</v>
       </c>
       <c r="E19" t="n">
-        <v>663154.25</v>
+        <v>681114.5</v>
       </c>
       <c r="F19" t="n">
-        <v>717634.75</v>
+        <v>730202</v>
       </c>
       <c r="G19" t="n">
-        <v>687652.5</v>
+        <v>702361</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>628947.1</v>
+        <v>648510.1</v>
       </c>
       <c r="D20" t="n">
-        <v>751018.8</v>
+        <v>761381.4</v>
       </c>
       <c r="E20" t="n">
-        <v>654074.75</v>
+        <v>671584.5</v>
       </c>
       <c r="F20" t="n">
-        <v>713103.5</v>
+        <v>724562.5</v>
       </c>
       <c r="G20" t="n">
-        <v>681036.5</v>
+        <v>694245.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>626725.6</v>
+        <v>636670.8</v>
       </c>
       <c r="D21" t="n">
-        <v>756106.9</v>
+        <v>759860.5</v>
       </c>
       <c r="E21" t="n">
-        <v>652854.75</v>
+        <v>661547.5</v>
       </c>
       <c r="F21" t="n">
-        <v>716515</v>
+        <v>719359</v>
       </c>
       <c r="G21" t="n">
-        <v>682582.5</v>
+        <v>687115.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>621828.5</v>
+        <v>623562.1</v>
       </c>
       <c r="D22" t="n">
-        <v>760876.4</v>
+        <v>755493.3</v>
       </c>
       <c r="E22" t="n">
-        <v>650611.25</v>
+        <v>651168.25</v>
       </c>
       <c r="F22" t="n">
-        <v>719663.25</v>
+        <v>712567.25</v>
       </c>
       <c r="G22" t="n">
-        <v>683237</v>
+        <v>677904</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>620280.5</v>
+        <v>620140</v>
       </c>
       <c r="D23" t="n">
-        <v>766295.8</v>
+        <v>761124.9</v>
       </c>
       <c r="E23" t="n">
-        <v>649072.75</v>
+        <v>648231</v>
       </c>
       <c r="F23" t="n">
-        <v>721295.25</v>
+        <v>714855.5</v>
       </c>
       <c r="G23" t="n">
-        <v>683616</v>
+        <v>678215</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>617152.9</v>
+        <v>616680.9</v>
       </c>
       <c r="D24" t="n">
-        <v>772105.3</v>
+        <v>765859.8</v>
       </c>
       <c r="E24" t="n">
-        <v>647440</v>
+        <v>647116.25</v>
       </c>
       <c r="F24" t="n">
-        <v>723614.5</v>
+        <v>717192.25</v>
       </c>
       <c r="G24" t="n">
-        <v>683089</v>
+        <v>678447.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>612621.3</v>
+        <v>613772</v>
       </c>
       <c r="D25" t="n">
-        <v>774802.9</v>
+        <v>770547.2</v>
       </c>
       <c r="E25" t="n">
-        <v>646240.75</v>
+        <v>646252.5</v>
       </c>
       <c r="F25" t="n">
-        <v>725437.5</v>
+        <v>719927.75</v>
       </c>
       <c r="G25" t="n">
-        <v>684153.5</v>
+        <v>677589.5</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>608254.4</v>
+        <v>609135.3</v>
       </c>
       <c r="D26" t="n">
-        <v>777799.4</v>
+        <v>773052.8</v>
       </c>
       <c r="E26" t="n">
-        <v>644007.25</v>
+        <v>643838</v>
       </c>
       <c r="F26" t="n">
-        <v>724786.5</v>
+        <v>720907.25</v>
       </c>
       <c r="G26" t="n">
-        <v>683149.5</v>
+        <v>677518</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>603883.9</v>
+        <v>605012.2</v>
       </c>
       <c r="D27" t="n">
-        <v>779979.7</v>
+        <v>773695.7</v>
       </c>
       <c r="E27" t="n">
-        <v>639870.25</v>
+        <v>641834</v>
       </c>
       <c r="F27" t="n">
-        <v>725046.5</v>
+        <v>721302.25</v>
       </c>
       <c r="G27" t="n">
-        <v>681395.5</v>
+        <v>676617.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>598291.9</v>
+        <v>600147.1</v>
       </c>
       <c r="D28" t="n">
-        <v>781174.7</v>
+        <v>776313.9</v>
       </c>
       <c r="E28" t="n">
-        <v>636264.75</v>
+        <v>639352.75</v>
       </c>
       <c r="F28" t="n">
-        <v>724441.75</v>
+        <v>722078.25</v>
       </c>
       <c r="G28" t="n">
-        <v>679286</v>
+        <v>674845</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>595873.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>778260.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>635418.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>720619.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>672177</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,621 +1240,639 @@
         <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>1.004177733753</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="D3" t="n">
-        <v>1.004177733753</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="E3" t="n">
-        <v>1.004177733753</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="F3" t="n">
-        <v>1.004177733753</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="G3" t="n">
-        <v>1.004177733753</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.002328927713</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.002328927713</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.002328927713</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.002328927713</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>1.002328927713</v>
-      </c>
-      <c r="H4"/>
+        <v>1.2780796334476</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>0.995710244864289</v>
+        <v>1.002328927713</v>
       </c>
       <c r="D5" t="n">
-        <v>0.995710244864289</v>
+        <v>1.002328927713</v>
       </c>
       <c r="E5" t="n">
-        <v>0.995710244864289</v>
+        <v>1.002328927713</v>
       </c>
       <c r="F5" t="n">
-        <v>0.995710244864289</v>
+        <v>1.002328927713</v>
       </c>
       <c r="G5" t="n">
-        <v>0.995710244864289</v>
+        <v>1.002328927713</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>0.989470124870121</v>
+        <v>0.995710244864288</v>
       </c>
       <c r="D6" t="n">
-        <v>0.989470124870121</v>
+        <v>0.995710244864288</v>
       </c>
       <c r="E6" t="n">
-        <v>0.989470124870121</v>
+        <v>0.995710244864288</v>
       </c>
       <c r="F6" t="n">
-        <v>0.989470124870121</v>
+        <v>0.995710244864288</v>
       </c>
       <c r="G6" t="n">
-        <v>0.989470124870121</v>
+        <v>0.995710244864288</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>0.989238836888418</v>
+        <v>0.989470124870121</v>
       </c>
       <c r="D7" t="n">
-        <v>0.989238836888418</v>
+        <v>0.989470124870121</v>
       </c>
       <c r="E7" t="n">
-        <v>0.989238836888418</v>
+        <v>0.989470124870121</v>
       </c>
       <c r="F7" t="n">
-        <v>0.989238836888418</v>
+        <v>0.989470124870121</v>
       </c>
       <c r="G7" t="n">
-        <v>0.989238836888418</v>
+        <v>0.989470124870121</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>0.986292025827915</v>
+        <v>0.989238836888418</v>
       </c>
       <c r="D8" t="n">
-        <v>0.986292025827915</v>
+        <v>0.989238836888418</v>
       </c>
       <c r="E8" t="n">
-        <v>0.986292025827915</v>
+        <v>0.989238836888418</v>
       </c>
       <c r="F8" t="n">
-        <v>0.986292025827915</v>
+        <v>0.989238836888418</v>
       </c>
       <c r="G8" t="n">
-        <v>0.986292025827915</v>
+        <v>0.989238836888418</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="C9" t="n">
-        <v>0.981387047479372</v>
+        <v>0.986292025827915</v>
       </c>
       <c r="D9" t="n">
-        <v>0.981387047479372</v>
+        <v>0.986292025827915</v>
       </c>
       <c r="E9" t="n">
-        <v>0.981387047479372</v>
+        <v>0.986292025827915</v>
       </c>
       <c r="F9" t="n">
-        <v>0.981387047479372</v>
+        <v>0.986292025827915</v>
       </c>
       <c r="G9" t="n">
-        <v>0.981387047479372</v>
+        <v>0.986292025827915</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
       <c r="C10" t="n">
-        <v>0.980624215866733</v>
+        <v>0.981387047479371</v>
       </c>
       <c r="D10" t="n">
-        <v>0.980624215866733</v>
+        <v>0.981387047479371</v>
       </c>
       <c r="E10" t="n">
-        <v>0.980624215866733</v>
+        <v>0.981387047479371</v>
       </c>
       <c r="F10" t="n">
-        <v>0.980624215866733</v>
+        <v>0.981387047479371</v>
       </c>
       <c r="G10" t="n">
-        <v>0.980624215866733</v>
+        <v>0.981387047479371</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>0.975772623769772</v>
+        <v>0.980624215866733</v>
       </c>
       <c r="D11" t="n">
-        <v>0.975772623769772</v>
+        <v>0.980624215866733</v>
       </c>
       <c r="E11" t="n">
-        <v>0.975772623769772</v>
+        <v>0.980624215866733</v>
       </c>
       <c r="F11" t="n">
-        <v>0.975772623769772</v>
+        <v>0.980624215866733</v>
       </c>
       <c r="G11" t="n">
-        <v>0.975772623769772</v>
+        <v>0.980624215866733</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>0.972299866909114</v>
+        <v>0.975772623769772</v>
       </c>
       <c r="D12" t="n">
-        <v>0.972299866909114</v>
+        <v>0.975772623769772</v>
       </c>
       <c r="E12" t="n">
-        <v>0.972299866909114</v>
+        <v>0.975772623769772</v>
       </c>
       <c r="F12" t="n">
-        <v>0.972299866909114</v>
+        <v>0.975772623769772</v>
       </c>
       <c r="G12" t="n">
-        <v>0.972299866909114</v>
+        <v>0.975772623769772</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>0.971457209790666</v>
+        <v>0.972299866909114</v>
       </c>
       <c r="D13" t="n">
-        <v>0.971457209790666</v>
+        <v>0.972299866909114</v>
       </c>
       <c r="E13" t="n">
-        <v>0.971457209790666</v>
+        <v>0.972299866909114</v>
       </c>
       <c r="F13" t="n">
-        <v>0.971457209790666</v>
+        <v>0.972299866909114</v>
       </c>
       <c r="G13" t="n">
-        <v>0.971457209790666</v>
+        <v>0.972299866909114</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>0.971667155034482</v>
+        <v>0.971457209790666</v>
       </c>
       <c r="D14" t="n">
-        <v>0.971667155034482</v>
+        <v>0.971457209790666</v>
       </c>
       <c r="E14" t="n">
-        <v>0.971667155034482</v>
+        <v>0.971457209790666</v>
       </c>
       <c r="F14" t="n">
-        <v>0.971667155034482</v>
+        <v>0.971457209790666</v>
       </c>
       <c r="G14" t="n">
-        <v>0.971667155034482</v>
+        <v>0.971457209790666</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="n">
-        <v>0.972184884606583</v>
+        <v>0.971667155034482</v>
       </c>
       <c r="D15" t="n">
-        <v>0.972184884606583</v>
+        <v>0.971667155034482</v>
       </c>
       <c r="E15" t="n">
-        <v>0.972184884606583</v>
+        <v>0.971667155034482</v>
       </c>
       <c r="F15" t="n">
-        <v>0.972184884606583</v>
+        <v>0.971667155034482</v>
       </c>
       <c r="G15" t="n">
-        <v>0.972184884606583</v>
+        <v>0.971667155034482</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16" t="n">
-        <v>0.971667390073031</v>
+        <v>0.972184884606583</v>
       </c>
       <c r="D16" t="n">
-        <v>0.971667390073031</v>
+        <v>0.972184884606583</v>
       </c>
       <c r="E16" t="n">
-        <v>0.971667390073031</v>
+        <v>0.972184884606583</v>
       </c>
       <c r="F16" t="n">
-        <v>0.971667390073031</v>
+        <v>0.972184884606583</v>
       </c>
       <c r="G16" t="n">
-        <v>0.971667390073031</v>
+        <v>0.972184884606583</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="n">
-        <v>0.972231250020822</v>
+        <v>0.971667390073031</v>
       </c>
       <c r="D17" t="n">
-        <v>0.972231250020822</v>
+        <v>0.971667390073031</v>
       </c>
       <c r="E17" t="n">
-        <v>0.972231250020822</v>
+        <v>0.971667390073031</v>
       </c>
       <c r="F17" t="n">
-        <v>0.972231250020822</v>
+        <v>0.971667390073031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.972231250020822</v>
+        <v>0.971667390073031</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>0.970923298349121</v>
+        <v>0.972231250020822</v>
       </c>
       <c r="D18" t="n">
-        <v>0.970923298349121</v>
+        <v>0.972231250020822</v>
       </c>
       <c r="E18" t="n">
-        <v>0.970923298349121</v>
+        <v>0.972231250020822</v>
       </c>
       <c r="F18" t="n">
-        <v>0.970923298349121</v>
+        <v>0.972231250020822</v>
       </c>
       <c r="G18" t="n">
-        <v>0.970923298349121</v>
+        <v>0.972231250020822</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
       <c r="C19" t="n">
-        <v>0.966172198060867</v>
+        <v>0.970923298349121</v>
       </c>
       <c r="D19" t="n">
-        <v>0.966172198060867</v>
+        <v>0.970923298349121</v>
       </c>
       <c r="E19" t="n">
-        <v>0.966172198060867</v>
+        <v>0.970923298349121</v>
       </c>
       <c r="F19" t="n">
-        <v>0.966172198060867</v>
+        <v>0.970923298349121</v>
       </c>
       <c r="G19" t="n">
-        <v>0.966172198060867</v>
+        <v>0.970923298349121</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>0.967788023959141</v>
+        <v>0.966172198060867</v>
       </c>
       <c r="D20" t="n">
-        <v>0.967788023959141</v>
+        <v>0.966172198060867</v>
       </c>
       <c r="E20" t="n">
-        <v>0.967788023959141</v>
+        <v>0.966172198060867</v>
       </c>
       <c r="F20" t="n">
-        <v>0.967788023959141</v>
+        <v>0.966172198060867</v>
       </c>
       <c r="G20" t="n">
-        <v>0.967788023959141</v>
+        <v>0.966172198060867</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>0.965457561808286</v>
+        <v>0.967788023959141</v>
       </c>
       <c r="D21" t="n">
-        <v>0.965457561808286</v>
+        <v>0.967788023959141</v>
       </c>
       <c r="E21" t="n">
-        <v>0.965457561808286</v>
+        <v>0.967788023959141</v>
       </c>
       <c r="F21" t="n">
-        <v>0.965457561808286</v>
+        <v>0.967788023959141</v>
       </c>
       <c r="G21" t="n">
-        <v>0.965457561808286</v>
+        <v>0.967788023959141</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
       </c>
       <c r="C22" t="n">
-        <v>0.964433317475169</v>
+        <v>0.965457561808286</v>
       </c>
       <c r="D22" t="n">
-        <v>0.964433317475169</v>
+        <v>0.965457561808286</v>
       </c>
       <c r="E22" t="n">
-        <v>0.964433317475169</v>
+        <v>0.965457561808286</v>
       </c>
       <c r="F22" t="n">
-        <v>0.964433317475169</v>
+        <v>0.965457561808286</v>
       </c>
       <c r="G22" t="n">
-        <v>0.964433317475169</v>
+        <v>0.965457561808286</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>0.961708394771406</v>
+        <v>0.964433317475169</v>
       </c>
       <c r="D23" t="n">
-        <v>0.961708394771406</v>
+        <v>0.964433317475169</v>
       </c>
       <c r="E23" t="n">
-        <v>0.961708394771406</v>
+        <v>0.964433317475169</v>
       </c>
       <c r="F23" t="n">
-        <v>0.961708394771406</v>
+        <v>0.964433317475169</v>
       </c>
       <c r="G23" t="n">
-        <v>0.961708394771406</v>
+        <v>0.964433317475169</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="n">
-        <v>0.959144244166009</v>
+        <v>0.961708394771406</v>
       </c>
       <c r="D24" t="n">
-        <v>0.959144244166009</v>
+        <v>0.961708394771406</v>
       </c>
       <c r="E24" t="n">
-        <v>0.959144244166009</v>
+        <v>0.961708394771406</v>
       </c>
       <c r="F24" t="n">
-        <v>0.959144244166009</v>
+        <v>0.961708394771406</v>
       </c>
       <c r="G24" t="n">
-        <v>0.959144244166009</v>
+        <v>0.961708394771406</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>0.958905675242058</v>
+        <v>0.959144244166009</v>
       </c>
       <c r="D25" t="n">
-        <v>0.958905675242058</v>
+        <v>0.959144244166009</v>
       </c>
       <c r="E25" t="n">
-        <v>0.958905675242058</v>
+        <v>0.959144244166009</v>
       </c>
       <c r="F25" t="n">
-        <v>0.958905675242058</v>
+        <v>0.959144244166009</v>
       </c>
       <c r="G25" t="n">
-        <v>0.958905675242058</v>
+        <v>0.959144244166009</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>0.95922689710291</v>
+        <v>0.958905675242058</v>
       </c>
       <c r="D26" t="n">
-        <v>0.95922689710291</v>
+        <v>0.958905675242058</v>
       </c>
       <c r="E26" t="n">
-        <v>0.95922689710291</v>
+        <v>0.958905675242058</v>
       </c>
       <c r="F26" t="n">
-        <v>0.95922689710291</v>
+        <v>0.958905675242058</v>
       </c>
       <c r="G26" t="n">
-        <v>0.95922689710291</v>
+        <v>0.958905675242058</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
       <c r="C27" t="n">
-        <v>0.950587846425287</v>
+        <v>0.95922689710291</v>
       </c>
       <c r="D27" t="n">
-        <v>0.950587846425287</v>
+        <v>0.95922689710291</v>
       </c>
       <c r="E27" t="n">
-        <v>0.950587846425287</v>
+        <v>0.95922689710291</v>
       </c>
       <c r="F27" t="n">
-        <v>0.950587846425287</v>
+        <v>0.95922689710291</v>
       </c>
       <c r="G27" t="n">
-        <v>0.950587846425287</v>
+        <v>0.95922689710291</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="n">
+        <v>0.950587846425287</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.950587846425287</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.950587846425287</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.950587846425287</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.950587846425287</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="n">
         <v>0.949744058396192</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>0.949744058396192</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E29" t="n">
         <v>0.949744058396192</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
         <v>0.949744058396192</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>0.949744058396192</v>
       </c>
-      <c r="H28"/>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1891,621 +1927,639 @@
         <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>0.175231986577117</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="D3" t="n">
-        <v>0.175388094351586</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="E3" t="n">
-        <v>0.175271463699911</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.175349405991357</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="G3" t="n">
-        <v>0.175309351405429</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.17048093755734</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.17082014886052</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.170565504296782</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.170734195763165</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.170654203023237</v>
-      </c>
-      <c r="H4"/>
+        <v>0.177488907352083</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16550340292993</v>
+        <v>0.172728894755397</v>
       </c>
       <c r="D5" t="n">
-        <v>0.166044800154481</v>
+        <v>0.172950158046351</v>
       </c>
       <c r="E5" t="n">
-        <v>0.165637098697754</v>
+        <v>0.172779705957596</v>
       </c>
       <c r="F5" t="n">
-        <v>0.165906755142789</v>
+        <v>0.172899321224791</v>
       </c>
       <c r="G5" t="n">
-        <v>0.165766175782153</v>
+        <v>0.172842600343388</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160399685011279</v>
+        <v>0.167746069467612</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161149131932446</v>
+        <v>0.168191464772654</v>
       </c>
       <c r="E6" t="n">
-        <v>0.160576624698993</v>
+        <v>0.167844452375701</v>
       </c>
       <c r="F6" t="n">
-        <v>0.160957914533012</v>
+        <v>0.168083400498032</v>
       </c>
       <c r="G6" t="n">
-        <v>0.16075661431291</v>
+        <v>0.167963340948166</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15548991746916</v>
+        <v>0.162622622668769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.156452684242291</v>
+        <v>0.163301569987297</v>
       </c>
       <c r="E7" t="n">
-        <v>0.155711925969182</v>
+        <v>0.162768123961696</v>
       </c>
       <c r="F7" t="n">
-        <v>0.156207091847235</v>
+        <v>0.163123016889297</v>
       </c>
       <c r="G7" t="n">
-        <v>0.155933817974943</v>
+        <v>0.162946198414598</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>0.150653493635974</v>
+        <v>0.157672634819568</v>
       </c>
       <c r="D8" t="n">
-        <v>0.151789825341797</v>
+        <v>0.1585629957459</v>
       </c>
       <c r="E8" t="n">
-        <v>0.150907413327962</v>
+        <v>0.157862921751807</v>
       </c>
       <c r="F8" t="n">
-        <v>0.151490754258827</v>
+        <v>0.158332125616851</v>
       </c>
       <c r="G8" t="n">
-        <v>0.151175091675045</v>
+        <v>0.158079370798418</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>0.146063006966683</v>
+        <v>0.152731149365749</v>
       </c>
       <c r="D9" t="n">
-        <v>0.147424253593519</v>
+        <v>0.153854440023581</v>
       </c>
       <c r="E9" t="n">
-        <v>0.146377257958746</v>
+        <v>0.152984206887973</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147073216125942</v>
+        <v>0.15356508870588</v>
       </c>
       <c r="G9" t="n">
-        <v>0.14669836191308</v>
+        <v>0.153243373244228</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>0.141686204981645</v>
+        <v>0.14808701009448</v>
       </c>
       <c r="D10" t="n">
-        <v>0.143311613207878</v>
+        <v>0.149431381276587</v>
       </c>
       <c r="E10" t="n">
-        <v>0.142036305857927</v>
+        <v>0.148376744149902</v>
       </c>
       <c r="F10" t="n">
-        <v>0.142889244064076</v>
+        <v>0.149059979220493</v>
       </c>
       <c r="G10" t="n">
-        <v>0.142456823658927</v>
+        <v>0.148691596513448</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>0.13766900607835</v>
+        <v>0.14357789107797</v>
       </c>
       <c r="D11" t="n">
-        <v>0.139655153692261</v>
+        <v>0.145222079633304</v>
       </c>
       <c r="E11" t="n">
-        <v>0.138121950215574</v>
+        <v>0.143946146703973</v>
       </c>
       <c r="F11" t="n">
-        <v>0.139140503848902</v>
+        <v>0.144777308998747</v>
       </c>
       <c r="G11" t="n">
-        <v>0.138583889924363</v>
+        <v>0.144344322340682</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>0.134072424349521</v>
+        <v>0.139471112875851</v>
       </c>
       <c r="D12" t="n">
-        <v>0.136523609568528</v>
+        <v>0.141464505779161</v>
       </c>
       <c r="E12" t="n">
-        <v>0.134599904250184</v>
+        <v>0.139900210525812</v>
       </c>
       <c r="F12" t="n">
-        <v>0.135876197312766</v>
+        <v>0.14091347043236</v>
       </c>
       <c r="G12" t="n">
-        <v>0.135213375437633</v>
+        <v>0.140420585766648</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>0.130982981704194</v>
+        <v>0.135809405431835</v>
       </c>
       <c r="D13" t="n">
-        <v>0.133940009194924</v>
+        <v>0.138216618907549</v>
       </c>
       <c r="E13" t="n">
-        <v>0.131595688273945</v>
+        <v>0.13633352850928</v>
       </c>
       <c r="F13" t="n">
-        <v>0.133176559273962</v>
+        <v>0.137578417681881</v>
       </c>
       <c r="G13" t="n">
-        <v>0.132368679172078</v>
+        <v>0.136965565099068</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>0.128434451149916</v>
+        <v>0.132587246607624</v>
       </c>
       <c r="D14" t="n">
-        <v>0.131944431743978</v>
+        <v>0.135548648889023</v>
       </c>
       <c r="E14" t="n">
-        <v>0.129176559111698</v>
+        <v>0.133247586290222</v>
       </c>
       <c r="F14" t="n">
-        <v>0.131055858321399</v>
+        <v>0.134783896308821</v>
       </c>
       <c r="G14" t="n">
-        <v>0.130110548611665</v>
+        <v>0.134030570394626</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>0.126319145068521</v>
+        <v>0.130013353838572</v>
       </c>
       <c r="D15" t="n">
-        <v>0.130523379979893</v>
+        <v>0.133562185423634</v>
       </c>
       <c r="E15" t="n">
-        <v>0.127190992216668</v>
+        <v>0.130753732696465</v>
       </c>
       <c r="F15" t="n">
-        <v>0.129374236939721</v>
+        <v>0.132600742052108</v>
       </c>
       <c r="G15" t="n">
-        <v>0.128289536472566</v>
+        <v>0.13169203531516</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>0.124037498267562</v>
+        <v>0.127809687126153</v>
       </c>
       <c r="D16" t="n">
-        <v>0.128961054529176</v>
+        <v>0.132016440390166</v>
       </c>
       <c r="E16" t="n">
-        <v>0.125083659370722</v>
+        <v>0.128752955044429</v>
       </c>
       <c r="F16" t="n">
-        <v>0.127674037447107</v>
+        <v>0.130854947225198</v>
       </c>
       <c r="G16" t="n">
-        <v>0.126397168526745</v>
+        <v>0.129778241007946</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>0.121368427565349</v>
+        <v>0.125518173029272</v>
       </c>
       <c r="D17" t="n">
-        <v>0.127063867202572</v>
+        <v>0.130346483770329</v>
       </c>
       <c r="E17" t="n">
-        <v>0.122481433930193</v>
+        <v>0.126611473561216</v>
       </c>
       <c r="F17" t="n">
-        <v>0.125463999578674</v>
+        <v>0.129015355004321</v>
       </c>
       <c r="G17" t="n">
-        <v>0.12403304449136</v>
+        <v>0.127781506016026</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>0.119480711431701</v>
+        <v>0.122624764952192</v>
       </c>
       <c r="D18" t="n">
-        <v>0.12600012662392</v>
+        <v>0.128344074536437</v>
       </c>
       <c r="E18" t="n">
-        <v>0.120778131939199</v>
+        <v>0.123959513084139</v>
       </c>
       <c r="F18" t="n">
-        <v>0.124158503171035</v>
+        <v>0.12678473375266</v>
       </c>
       <c r="G18" t="n">
-        <v>0.122506678752611</v>
+        <v>0.125286668916058</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>0.117923598984337</v>
+        <v>0.120744266542009</v>
       </c>
       <c r="D19" t="n">
-        <v>0.125235443401733</v>
+        <v>0.127311106772898</v>
       </c>
       <c r="E19" t="n">
-        <v>0.119402005054699</v>
+        <v>0.122191117184099</v>
       </c>
       <c r="F19" t="n">
-        <v>0.123191012894788</v>
+        <v>0.125387905369892</v>
       </c>
       <c r="G19" t="n">
-        <v>0.121361890906968</v>
+        <v>0.123761657221553</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>0.116371369352802</v>
+        <v>0.119109337616227</v>
       </c>
       <c r="D20" t="n">
-        <v>0.124483651684775</v>
+        <v>0.126588460683612</v>
       </c>
       <c r="E20" t="n">
-        <v>0.118047346212046</v>
+        <v>0.120790165286617</v>
       </c>
       <c r="F20" t="n">
-        <v>0.122191261348131</v>
+        <v>0.12440697509851</v>
       </c>
       <c r="G20" t="n">
-        <v>0.120138474222915</v>
+        <v>0.12254274766316</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11622837034137</v>
+        <v>0.117571662465793</v>
       </c>
       <c r="D21" t="n">
-        <v>0.125115211427057</v>
+        <v>0.125823208942159</v>
       </c>
       <c r="E21" t="n">
-        <v>0.118124613649161</v>
+        <v>0.119433401552735</v>
       </c>
       <c r="F21" t="n">
-        <v>0.122611546649022</v>
+        <v>0.12342414205694</v>
       </c>
       <c r="G21" t="n">
-        <v>0.120363068655833</v>
+        <v>0.121372083886764</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116163383481705</v>
+        <v>0.115572905543151</v>
       </c>
       <c r="D22" t="n">
-        <v>0.125571643702834</v>
+        <v>0.124635723390734</v>
       </c>
       <c r="E22" t="n">
-        <v>0.118133221018021</v>
+        <v>0.117714604155303</v>
       </c>
       <c r="F22" t="n">
-        <v>0.122930910604934</v>
+        <v>0.121999333710191</v>
       </c>
       <c r="G22" t="n">
-        <v>0.120560637715515</v>
+        <v>0.119797990436628</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="n">
-        <v>0.115997931006866</v>
+        <v>0.115504272478146</v>
       </c>
       <c r="D23" t="n">
-        <v>0.125981024093459</v>
+        <v>0.125146652261756</v>
       </c>
       <c r="E23" t="n">
-        <v>0.118162683979096</v>
+        <v>0.117808122362321</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123242559535013</v>
+        <v>0.122423361094659</v>
       </c>
       <c r="G23" t="n">
-        <v>0.120659325461547</v>
+        <v>0.119941548857317</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="n">
-        <v>0.115904871508089</v>
+        <v>0.115408819126984</v>
       </c>
       <c r="D24" t="n">
-        <v>0.126322161022769</v>
+        <v>0.125652749629227</v>
       </c>
       <c r="E24" t="n">
-        <v>0.118137209579612</v>
+        <v>0.117814934421177</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123506658422818</v>
+        <v>0.122758576644315</v>
       </c>
       <c r="G24" t="n">
-        <v>0.12076473782163</v>
+        <v>0.120128894200758</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="n">
-        <v>0.115721141892892</v>
+        <v>0.115287263472464</v>
       </c>
       <c r="D25" t="n">
-        <v>0.126654710578751</v>
+        <v>0.12611920439371</v>
       </c>
       <c r="E25" t="n">
-        <v>0.118034496229772</v>
+        <v>0.117771144092123</v>
       </c>
       <c r="F25" t="n">
-        <v>0.123637661044297</v>
+        <v>0.122948358615379</v>
       </c>
       <c r="G25" t="n">
-        <v>0.120739346168048</v>
+        <v>0.120256825132386</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="n">
-        <v>0.115366308702388</v>
+        <v>0.115009719729185</v>
       </c>
       <c r="D26" t="n">
-        <v>0.126875851046518</v>
+        <v>0.12648749167739</v>
       </c>
       <c r="E26" t="n">
-        <v>0.117847884975571</v>
+        <v>0.117648415810747</v>
       </c>
       <c r="F26" t="n">
-        <v>0.123783346339118</v>
+        <v>0.123119772298241</v>
       </c>
       <c r="G26" t="n">
-        <v>0.120605288689287</v>
+        <v>0.120307221734746</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>0.114942375172451</v>
+        <v>0.11480279340553</v>
       </c>
       <c r="D27" t="n">
-        <v>0.126935553510109</v>
+        <v>0.126661144324544</v>
       </c>
       <c r="E27" t="n">
-        <v>0.117566443452523</v>
+        <v>0.117491212797469</v>
       </c>
       <c r="F27" t="n">
-        <v>0.123670759528756</v>
+        <v>0.123126790101802</v>
       </c>
       <c r="G27" t="n">
-        <v>0.120367722354263</v>
+        <v>0.120303686939079</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
       <c r="C28" t="n">
-        <v>0.114473371589021</v>
+        <v>0.114569698138785</v>
       </c>
       <c r="D28" t="n">
-        <v>0.126849631049282</v>
+        <v>0.12664862992937</v>
       </c>
       <c r="E28" t="n">
-        <v>0.117119393447528</v>
+        <v>0.117245281501819</v>
       </c>
       <c r="F28" t="n">
-        <v>0.123507652035243</v>
+        <v>0.122992628241709</v>
       </c>
       <c r="G28" t="n">
-        <v>0.120138033202781</v>
+        <v>0.120097056280948</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.113935280657576</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.126503701789989</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.116936477315717</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.12269722154208</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.119753679662612</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2560,621 +2614,639 @@
         <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>664675</v>
+        <v>678392</v>
       </c>
       <c r="D3" t="n">
-        <v>664697</v>
+        <v>678392</v>
       </c>
       <c r="E3" t="n">
-        <v>664680.75</v>
+        <v>678392</v>
       </c>
       <c r="F3" t="n">
-        <v>664692</v>
+        <v>678392</v>
       </c>
       <c r="G3" t="n">
-        <v>664686</v>
+        <v>678392</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>638884.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>641597</v>
-      </c>
-      <c r="E4" t="n">
-        <v>639532.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>640890</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>640249.5</v>
-      </c>
-      <c r="H4"/>
+        <v>678392</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>613649.6</v>
+        <v>652101.5</v>
       </c>
       <c r="D5" t="n">
-        <v>619444</v>
+        <v>655096</v>
       </c>
       <c r="E5" t="n">
-        <v>615085.25</v>
+        <v>652834.75</v>
       </c>
       <c r="F5" t="n">
-        <v>618079.25</v>
+        <v>654366.25</v>
       </c>
       <c r="G5" t="n">
-        <v>616536</v>
+        <v>653578.5</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>590132.5</v>
+        <v>626282</v>
       </c>
       <c r="D6" t="n">
-        <v>599472.4</v>
+        <v>632510.5</v>
       </c>
       <c r="E6" t="n">
-        <v>592475</v>
+        <v>627961.75</v>
       </c>
       <c r="F6" t="n">
-        <v>597357.25</v>
+        <v>631063.5</v>
       </c>
       <c r="G6" t="n">
-        <v>594752.5</v>
+        <v>629633</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>568670.5</v>
+        <v>602254.6</v>
       </c>
       <c r="D7" t="n">
-        <v>582585.7</v>
+        <v>612500.6</v>
       </c>
       <c r="E7" t="n">
-        <v>572113</v>
+        <v>604688.5</v>
       </c>
       <c r="F7" t="n">
-        <v>579066.75</v>
+        <v>609890.5</v>
       </c>
       <c r="G7" t="n">
-        <v>575681.5</v>
+        <v>607375</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>549867.5</v>
+        <v>580690.9</v>
       </c>
       <c r="D8" t="n">
-        <v>568781.6</v>
+        <v>595198</v>
       </c>
       <c r="E8" t="n">
-        <v>554451</v>
+        <v>584051.25</v>
       </c>
       <c r="F8" t="n">
-        <v>563584.25</v>
+        <v>591430</v>
       </c>
       <c r="G8" t="n">
-        <v>559222.5</v>
+        <v>587403</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>534089.1</v>
+        <v>561828.8</v>
       </c>
       <c r="D9" t="n">
-        <v>557923.7</v>
+        <v>580802.1</v>
       </c>
       <c r="E9" t="n">
-        <v>539506.5</v>
+        <v>565897.5</v>
       </c>
       <c r="F9" t="n">
-        <v>551163.75</v>
+        <v>575650.25</v>
       </c>
       <c r="G9" t="n">
-        <v>545647.5</v>
+        <v>570315</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>520328.9</v>
+        <v>545462.7</v>
       </c>
       <c r="D10" t="n">
-        <v>549857.3</v>
+        <v>569878.3</v>
       </c>
       <c r="E10" t="n">
-        <v>526868.5</v>
+        <v>550281</v>
       </c>
       <c r="F10" t="n">
-        <v>541500.75</v>
+        <v>562815.25</v>
       </c>
       <c r="G10" t="n">
-        <v>534423</v>
+        <v>555893.5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>505602.3</v>
+        <v>530991.6</v>
       </c>
       <c r="D11" t="n">
-        <v>541172.8</v>
+        <v>560984.3</v>
       </c>
       <c r="E11" t="n">
-        <v>513524</v>
+        <v>537274.25</v>
       </c>
       <c r="F11" t="n">
-        <v>531155.75</v>
+        <v>552752.25</v>
       </c>
       <c r="G11" t="n">
-        <v>521974.5</v>
+        <v>543791.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>488351.3</v>
+        <v>516009.4</v>
       </c>
       <c r="D12" t="n">
-        <v>529380.1</v>
+        <v>551652.9</v>
       </c>
       <c r="E12" t="n">
-        <v>496612.5</v>
+        <v>523795.5</v>
       </c>
       <c r="F12" t="n">
-        <v>517863.25</v>
+        <v>541988.5</v>
       </c>
       <c r="G12" t="n">
-        <v>507151.5</v>
+        <v>531032.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="n">
-        <v>475409.7</v>
+        <v>497855.7</v>
       </c>
       <c r="D13" t="n">
-        <v>523229.9</v>
+        <v>540285.6</v>
       </c>
       <c r="E13" t="n">
-        <v>485209.5</v>
+        <v>506985.25</v>
       </c>
       <c r="F13" t="n">
-        <v>509884</v>
+        <v>527862.25</v>
       </c>
       <c r="G13" t="n">
-        <v>497223</v>
+        <v>515360.5</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>464097.6</v>
+        <v>485054.2</v>
       </c>
       <c r="D14" t="n">
-        <v>519476.9</v>
+        <v>533739</v>
       </c>
       <c r="E14" t="n">
-        <v>475731.25</v>
+        <v>494989.25</v>
       </c>
       <c r="F14" t="n">
-        <v>503885.75</v>
+        <v>518992.25</v>
       </c>
       <c r="G14" t="n">
-        <v>489476.5</v>
+        <v>504973</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>453768.5</v>
+        <v>474700.9</v>
       </c>
       <c r="D15" t="n">
-        <v>516176.4</v>
+        <v>529884.6</v>
       </c>
       <c r="E15" t="n">
-        <v>466579.25</v>
+        <v>485342.25</v>
       </c>
       <c r="F15" t="n">
-        <v>498038.5</v>
+        <v>512911.5</v>
       </c>
       <c r="G15" t="n">
-        <v>481574</v>
+        <v>496876.5</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>451968.9</v>
+        <v>464055.7</v>
       </c>
       <c r="D16" t="n">
-        <v>521710.4</v>
+        <v>526488.5</v>
       </c>
       <c r="E16" t="n">
-        <v>466007.5</v>
+        <v>475891.75</v>
       </c>
       <c r="F16" t="n">
-        <v>500708.75</v>
+        <v>506465.25</v>
       </c>
       <c r="G16" t="n">
-        <v>481941.5</v>
+        <v>489065.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>450355.4</v>
+        <v>451510.9</v>
       </c>
       <c r="D17" t="n">
-        <v>527246.5</v>
+        <v>521364.2</v>
       </c>
       <c r="E17" t="n">
-        <v>464940</v>
+        <v>464573</v>
       </c>
       <c r="F17" t="n">
-        <v>503397.25</v>
+        <v>498663</v>
       </c>
       <c r="G17" t="n">
-        <v>483003.5</v>
+        <v>479478</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>448365.4</v>
+        <v>448883.3</v>
       </c>
       <c r="D18" t="n">
-        <v>532471.6</v>
+        <v>526862</v>
       </c>
       <c r="E18" t="n">
-        <v>465162.25</v>
+        <v>464485.25</v>
       </c>
       <c r="F18" t="n">
-        <v>506799.75</v>
+        <v>501687</v>
       </c>
       <c r="G18" t="n">
-        <v>484065</v>
+        <v>480251</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>446493.2</v>
+        <v>446594.6</v>
       </c>
       <c r="D19" t="n">
-        <v>537511.4</v>
+        <v>531747.1</v>
       </c>
       <c r="E19" t="n">
-        <v>465009</v>
+        <v>464070.25</v>
       </c>
       <c r="F19" t="n">
-        <v>509860.5</v>
+        <v>504366</v>
       </c>
       <c r="G19" t="n">
-        <v>485569</v>
+        <v>481386.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>445156.4</v>
+        <v>444964.3</v>
       </c>
       <c r="D20" t="n">
-        <v>542816</v>
+        <v>537856.1</v>
       </c>
       <c r="E20" t="n">
-        <v>465160.75</v>
+        <v>463678.75</v>
       </c>
       <c r="F20" t="n">
-        <v>512668.5</v>
+        <v>506729.5</v>
       </c>
       <c r="G20" t="n">
-        <v>487125.5</v>
+        <v>482315.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>443275.9</v>
+        <v>442762.1</v>
       </c>
       <c r="D21" t="n">
-        <v>547852.8</v>
+        <v>541729.2</v>
       </c>
       <c r="E21" t="n">
-        <v>465088.75</v>
+        <v>462949.5</v>
       </c>
       <c r="F21" t="n">
-        <v>515849.25</v>
+        <v>509780.25</v>
       </c>
       <c r="G21" t="n">
-        <v>488570</v>
+        <v>483833.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="n">
-        <v>441216.8</v>
+        <v>440660</v>
       </c>
       <c r="D22" t="n">
-        <v>551395.1</v>
+        <v>546910.8</v>
       </c>
       <c r="E22" t="n">
-        <v>463952</v>
+        <v>462985.75</v>
       </c>
       <c r="F22" t="n">
-        <v>518141.25</v>
+        <v>512214.75</v>
       </c>
       <c r="G22" t="n">
-        <v>489265</v>
+        <v>485344.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>440347.6</v>
+        <v>438909.9</v>
       </c>
       <c r="D23" t="n">
-        <v>555415.7</v>
+        <v>552472.9</v>
       </c>
       <c r="E23" t="n">
-        <v>462969.75</v>
+        <v>462257</v>
       </c>
       <c r="F23" t="n">
-        <v>519867.75</v>
+        <v>515407.5</v>
       </c>
       <c r="G23" t="n">
-        <v>489663.5</v>
+        <v>485944.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="n">
-        <v>438313.6</v>
+        <v>437193.9</v>
       </c>
       <c r="D24" t="n">
-        <v>558953.6</v>
+        <v>555505.8</v>
       </c>
       <c r="E24" t="n">
-        <v>462110.75</v>
+        <v>461502.25</v>
       </c>
       <c r="F24" t="n">
-        <v>521720</v>
+        <v>517097.5</v>
       </c>
       <c r="G24" t="n">
-        <v>489700.5</v>
+        <v>486011</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>435520.1</v>
+        <v>434361.3</v>
       </c>
       <c r="D25" t="n">
-        <v>560802.8</v>
+        <v>557199.3</v>
       </c>
       <c r="E25" t="n">
-        <v>460229</v>
+        <v>460736.5</v>
       </c>
       <c r="F25" t="n">
-        <v>521734</v>
+        <v>518026.25</v>
       </c>
       <c r="G25" t="n">
-        <v>489424</v>
+        <v>485783</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="n">
-        <v>431304</v>
+        <v>432124.6</v>
       </c>
       <c r="D26" t="n">
-        <v>562275.5</v>
+        <v>559282.1</v>
       </c>
       <c r="E26" t="n">
-        <v>458497.5</v>
+        <v>459273.75</v>
       </c>
       <c r="F26" t="n">
-        <v>520700.25</v>
+        <v>519176.75</v>
       </c>
       <c r="G26" t="n">
-        <v>488220.5</v>
+        <v>485814.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="n">
-        <v>426718.3</v>
+        <v>428235.4</v>
       </c>
       <c r="D27" t="n">
-        <v>562642.9</v>
+        <v>560672.3</v>
       </c>
       <c r="E27" t="n">
-        <v>454958</v>
+        <v>457486.75</v>
       </c>
       <c r="F27" t="n">
-        <v>519525.5</v>
+        <v>519168.25</v>
       </c>
       <c r="G27" t="n">
-        <v>486423</v>
+        <v>484678</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="n">
-        <v>421994.5</v>
+        <v>426579.6</v>
       </c>
       <c r="D28" t="n">
-        <v>562951.3</v>
+        <v>559924.4</v>
       </c>
       <c r="E28" t="n">
-        <v>451309.75</v>
+        <v>454435.25</v>
       </c>
       <c r="F28" t="n">
-        <v>517725.5</v>
+        <v>518376.25</v>
       </c>
       <c r="G28" t="n">
-        <v>482945</v>
+        <v>482640.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="n">
+        <v>421232</v>
+      </c>
+      <c r="D29" t="n">
+        <v>558356.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>450226.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>515114</v>
+      </c>
+      <c r="G29" t="n">
+        <v>479214</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3229,621 +3301,639 @@
         <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>325319</v>
+        <v>325645</v>
       </c>
       <c r="D3" t="n">
-        <v>325327</v>
+        <v>325645</v>
       </c>
       <c r="E3" t="n">
-        <v>325321</v>
+        <v>325645</v>
       </c>
       <c r="F3" t="n">
-        <v>325325</v>
+        <v>325645</v>
       </c>
       <c r="G3" t="n">
-        <v>325323</v>
+        <v>325645</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
-        <v>324161.3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>325994.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>324603.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>325521</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>325091.5</v>
-      </c>
-      <c r="H4"/>
+        <v>325645</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>320808.6</v>
+        <v>324930.8</v>
       </c>
       <c r="D5" t="n">
-        <v>324092.3</v>
+        <v>326955</v>
       </c>
       <c r="E5" t="n">
-        <v>321622</v>
+        <v>325424.25</v>
       </c>
       <c r="F5" t="n">
-        <v>323349.5</v>
+        <v>326462</v>
       </c>
       <c r="G5" t="n">
-        <v>322427.5</v>
+        <v>325927.5</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>314681.1</v>
+        <v>322090.7</v>
       </c>
       <c r="D6" t="n">
-        <v>319188.7</v>
+        <v>325654.2</v>
       </c>
       <c r="E6" t="n">
-        <v>315763.75</v>
+        <v>323015</v>
       </c>
       <c r="F6" t="n">
-        <v>318175.25</v>
+        <v>324807.5</v>
       </c>
       <c r="G6" t="n">
-        <v>316938</v>
+        <v>323959</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>306918.9</v>
+        <v>316383.5</v>
       </c>
       <c r="D7" t="n">
-        <v>312825.1</v>
+        <v>321416.9</v>
       </c>
       <c r="E7" t="n">
-        <v>308323.75</v>
+        <v>317568.5</v>
       </c>
       <c r="F7" t="n">
-        <v>311244.5</v>
+        <v>320094.75</v>
       </c>
       <c r="G7" t="n">
-        <v>309814.5</v>
+        <v>318755</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>296530.6</v>
+        <v>308916.9</v>
       </c>
       <c r="D8" t="n">
-        <v>303631.4</v>
+        <v>315086.1</v>
       </c>
       <c r="E8" t="n">
-        <v>298446.5</v>
+        <v>310317.5</v>
       </c>
       <c r="F8" t="n">
-        <v>301818</v>
+        <v>313502.75</v>
       </c>
       <c r="G8" t="n">
-        <v>300051</v>
+        <v>311729</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>285020.7</v>
+        <v>298968.4</v>
       </c>
       <c r="D9" t="n">
-        <v>292950</v>
+        <v>306190.9</v>
       </c>
       <c r="E9" t="n">
-        <v>286934.25</v>
+        <v>300416.5</v>
       </c>
       <c r="F9" t="n">
-        <v>290892.25</v>
+        <v>303890.25</v>
       </c>
       <c r="G9" t="n">
-        <v>288860</v>
+        <v>301900</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>272311.9</v>
+        <v>287223.9</v>
       </c>
       <c r="D10" t="n">
-        <v>281082.9</v>
+        <v>295380</v>
       </c>
       <c r="E10" t="n">
-        <v>274353.75</v>
+        <v>288900.25</v>
       </c>
       <c r="F10" t="n">
-        <v>278733.5</v>
+        <v>292849</v>
       </c>
       <c r="G10" t="n">
-        <v>276346</v>
+        <v>290581.5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>262497.4</v>
+        <v>274259.5</v>
       </c>
       <c r="D11" t="n">
-        <v>271952.8</v>
+        <v>283102.2</v>
       </c>
       <c r="E11" t="n">
-        <v>264514.75</v>
+        <v>276097.5</v>
       </c>
       <c r="F11" t="n">
-        <v>269404</v>
+        <v>280366.5</v>
       </c>
       <c r="G11" t="n">
-        <v>266776</v>
+        <v>277903.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>257892.3</v>
+        <v>264128</v>
       </c>
       <c r="D12" t="n">
-        <v>268254.9</v>
+        <v>273635.7</v>
       </c>
       <c r="E12" t="n">
-        <v>260073.75</v>
+        <v>266066.25</v>
       </c>
       <c r="F12" t="n">
-        <v>265272</v>
+        <v>270767.5</v>
       </c>
       <c r="G12" t="n">
-        <v>262555</v>
+        <v>268264</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>251232.3</v>
+        <v>259719.4</v>
       </c>
       <c r="D13" t="n">
-        <v>262603.5</v>
+        <v>270042.3</v>
       </c>
       <c r="E13" t="n">
-        <v>253549.75</v>
+        <v>261591</v>
       </c>
       <c r="F13" t="n">
-        <v>259146.5</v>
+        <v>266689.5</v>
       </c>
       <c r="G13" t="n">
-        <v>256136.5</v>
+        <v>263949.5</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>245400.2</v>
+        <v>252663.7</v>
       </c>
       <c r="D14" t="n">
-        <v>258241.3</v>
+        <v>264334</v>
       </c>
       <c r="E14" t="n">
-        <v>248084.25</v>
+        <v>254919.25</v>
       </c>
       <c r="F14" t="n">
-        <v>254132.25</v>
+        <v>260495.5</v>
       </c>
       <c r="G14" t="n">
-        <v>250911</v>
+        <v>257407</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="n">
-        <v>241874.5</v>
+        <v>246529.8</v>
       </c>
       <c r="D15" t="n">
-        <v>255712.7</v>
+        <v>259335.3</v>
       </c>
       <c r="E15" t="n">
-        <v>244841</v>
+        <v>249185.25</v>
       </c>
       <c r="F15" t="n">
-        <v>251601</v>
+        <v>255187</v>
       </c>
       <c r="G15" t="n">
-        <v>247790</v>
+        <v>251811.5</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>229538.9</v>
+        <v>242842.7</v>
       </c>
       <c r="D16" t="n">
-        <v>244432</v>
+        <v>256913.3</v>
       </c>
       <c r="E16" t="n">
-        <v>232574.5</v>
+        <v>245625.5</v>
       </c>
       <c r="F16" t="n">
-        <v>239890</v>
+        <v>252268</v>
       </c>
       <c r="G16" t="n">
-        <v>235832.5</v>
+        <v>248475.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>214008.7</v>
+        <v>239995.6</v>
       </c>
       <c r="D17" t="n">
-        <v>230694.6</v>
+        <v>255612.2</v>
       </c>
       <c r="E17" t="n">
-        <v>217402.75</v>
+        <v>243451.75</v>
       </c>
       <c r="F17" t="n">
-        <v>225513.5</v>
+        <v>250536.5</v>
       </c>
       <c r="G17" t="n">
-        <v>221091.5</v>
+        <v>246598</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>202861.9</v>
+        <v>223970.9</v>
       </c>
       <c r="D18" t="n">
-        <v>221606.9</v>
+        <v>241299.1</v>
       </c>
       <c r="E18" t="n">
-        <v>206924.5</v>
+        <v>227874</v>
       </c>
       <c r="F18" t="n">
-        <v>215804.25</v>
+        <v>235917.25</v>
       </c>
       <c r="G18" t="n">
-        <v>211002</v>
+        <v>231436</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>193463.1</v>
+        <v>212985.1</v>
       </c>
       <c r="D19" t="n">
-        <v>214190.7</v>
+        <v>231905.9</v>
       </c>
       <c r="E19" t="n">
-        <v>197988</v>
+        <v>216863.25</v>
       </c>
       <c r="F19" t="n">
-        <v>207971.5</v>
+        <v>225898.75</v>
       </c>
       <c r="G19" t="n">
-        <v>202564</v>
+        <v>220957.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>183885.2</v>
+        <v>203367.3</v>
       </c>
       <c r="D20" t="n">
-        <v>207239</v>
+        <v>224471.8</v>
       </c>
       <c r="E20" t="n">
-        <v>188993.75</v>
+        <v>207830.75</v>
       </c>
       <c r="F20" t="n">
-        <v>200172.5</v>
+        <v>217773</v>
       </c>
       <c r="G20" t="n">
-        <v>193976.5</v>
+        <v>212296</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>182666.8</v>
+        <v>193642.9</v>
       </c>
       <c r="D21" t="n">
-        <v>208617</v>
+        <v>217137.3</v>
       </c>
       <c r="E21" t="n">
-        <v>188173.5</v>
+        <v>198660</v>
       </c>
       <c r="F21" t="n">
-        <v>200697.75</v>
+        <v>209801</v>
       </c>
       <c r="G21" t="n">
-        <v>193758.5</v>
+        <v>203720</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="n">
-        <v>181454.4</v>
+        <v>182337.7</v>
       </c>
       <c r="D22" t="n">
-        <v>209759.4</v>
+        <v>208025</v>
       </c>
       <c r="E22" t="n">
-        <v>187128.75</v>
+        <v>187327.5</v>
       </c>
       <c r="F22" t="n">
-        <v>200915.25</v>
+        <v>199881.5</v>
       </c>
       <c r="G22" t="n">
-        <v>193617.5</v>
+        <v>192807</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="n">
-        <v>180320.9</v>
+        <v>181017</v>
       </c>
       <c r="D23" t="n">
-        <v>211150.3</v>
+        <v>209316.6</v>
       </c>
       <c r="E23" t="n">
-        <v>186672</v>
+        <v>186342.25</v>
       </c>
       <c r="F23" t="n">
-        <v>201636</v>
+        <v>199986.75</v>
       </c>
       <c r="G23" t="n">
-        <v>193450.5</v>
+        <v>192184.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="n">
-        <v>179176.7</v>
+        <v>179645.4</v>
       </c>
       <c r="D24" t="n">
-        <v>212570.4</v>
+        <v>210625.3</v>
       </c>
       <c r="E24" t="n">
-        <v>186005</v>
+        <v>185754.75</v>
       </c>
       <c r="F24" t="n">
-        <v>202428.75</v>
+        <v>200442.25</v>
       </c>
       <c r="G24" t="n">
-        <v>193389.5</v>
+        <v>192021.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="n">
-        <v>178055.8</v>
+        <v>178603.2</v>
       </c>
       <c r="D25" t="n">
-        <v>214136.9</v>
+        <v>212233.6</v>
       </c>
       <c r="E25" t="n">
-        <v>185441.75</v>
+        <v>185385.75</v>
       </c>
       <c r="F25" t="n">
-        <v>203183</v>
+        <v>200988.75</v>
       </c>
       <c r="G25" t="n">
-        <v>193706</v>
+        <v>191937.5</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>177460.6</v>
+        <v>177403.7</v>
       </c>
       <c r="D26" t="n">
-        <v>216432.8</v>
+        <v>213867.2</v>
       </c>
       <c r="E26" t="n">
-        <v>185221.75</v>
+        <v>184651.75</v>
       </c>
       <c r="F26" t="n">
-        <v>204160.75</v>
+        <v>201590.5</v>
       </c>
       <c r="G26" t="n">
-        <v>194058</v>
+        <v>191964</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27" t="n">
-        <v>176518</v>
+        <v>176322.7</v>
       </c>
       <c r="D27" t="n">
-        <v>218395.2</v>
+        <v>215401.3</v>
       </c>
       <c r="E27" t="n">
-        <v>185421.5</v>
+        <v>184322</v>
       </c>
       <c r="F27" t="n">
-        <v>205541.25</v>
+        <v>202601.25</v>
       </c>
       <c r="G27" t="n">
-        <v>194610</v>
+        <v>192270.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="n">
-        <v>176535.8</v>
+        <v>175579.2</v>
       </c>
       <c r="D28" t="n">
-        <v>220984.9</v>
+        <v>217581.5</v>
       </c>
       <c r="E28" t="n">
-        <v>185714.75</v>
+        <v>184261.75</v>
       </c>
       <c r="F28" t="n">
-        <v>206943</v>
+        <v>203709.5</v>
       </c>
       <c r="G28" t="n">
-        <v>195424</v>
+        <v>192761.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="n">
+        <v>175145.7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>219694.2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>184502</v>
+      </c>
+      <c r="F29" t="n">
+        <v>205016</v>
+      </c>
+      <c r="G29" t="n">
+        <v>193472</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3898,621 +3988,639 @@
         <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>64974</v>
+        <v>64863</v>
       </c>
       <c r="D3" t="n">
-        <v>64976</v>
+        <v>64863</v>
       </c>
       <c r="E3" t="n">
-        <v>64975</v>
+        <v>64863</v>
       </c>
       <c r="F3" t="n">
-        <v>64976</v>
+        <v>64863</v>
       </c>
       <c r="G3" t="n">
-        <v>64975</v>
+        <v>64863</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="n">
-        <v>66020.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>66633.3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>66168.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>66475</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>66331.5</v>
-      </c>
-      <c r="H4"/>
+        <v>64863</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>66545.4</v>
+        <v>65924.9</v>
       </c>
       <c r="D5" t="n">
-        <v>67662.4</v>
+        <v>66601</v>
       </c>
       <c r="E5" t="n">
-        <v>66814.5</v>
+        <v>66089.5</v>
       </c>
       <c r="F5" t="n">
-        <v>67403.75</v>
+        <v>66437</v>
       </c>
       <c r="G5" t="n">
-        <v>67091</v>
+        <v>66258</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6" t="n">
-        <v>65461</v>
+        <v>66530.6</v>
       </c>
       <c r="D6" t="n">
-        <v>67022.2</v>
+        <v>67747</v>
       </c>
       <c r="E6" t="n">
-        <v>65834.5</v>
+        <v>66844</v>
       </c>
       <c r="F6" t="n">
-        <v>66665.25</v>
+        <v>67463.25</v>
       </c>
       <c r="G6" t="n">
-        <v>66236.5</v>
+        <v>67171.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>65110.6</v>
+        <v>65619.2</v>
       </c>
       <c r="D7" t="n">
-        <v>67148.4</v>
+        <v>67352.1</v>
       </c>
       <c r="E7" t="n">
-        <v>65595</v>
+        <v>66015</v>
       </c>
       <c r="F7" t="n">
-        <v>66601</v>
+        <v>66887.75</v>
       </c>
       <c r="G7" t="n">
-        <v>66107</v>
+        <v>66430</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>63468.9</v>
+        <v>65444.5</v>
       </c>
       <c r="D8" t="n">
-        <v>65887</v>
+        <v>67567.7</v>
       </c>
       <c r="E8" t="n">
-        <v>64112</v>
+        <v>65920.5</v>
       </c>
       <c r="F8" t="n">
-        <v>65277.5</v>
+        <v>67019.5</v>
       </c>
       <c r="G8" t="n">
-        <v>64674</v>
+        <v>66412.5</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>62400</v>
+        <v>63982.5</v>
       </c>
       <c r="D9" t="n">
-        <v>65062</v>
+        <v>66461.4</v>
       </c>
       <c r="E9" t="n">
-        <v>63040.5</v>
+        <v>64474.75</v>
       </c>
       <c r="F9" t="n">
-        <v>64368.25</v>
+        <v>65656.25</v>
       </c>
       <c r="G9" t="n">
-        <v>63678.5</v>
+        <v>64974</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>60197.1</v>
+        <v>62936.1</v>
       </c>
       <c r="D10" t="n">
-        <v>63122.1</v>
+        <v>65685.9</v>
       </c>
       <c r="E10" t="n">
-        <v>60875.5</v>
+        <v>63498</v>
       </c>
       <c r="F10" t="n">
-        <v>62332.75</v>
+        <v>64811.5</v>
       </c>
       <c r="G10" t="n">
-        <v>61513</v>
+        <v>64058</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>57666.9</v>
+        <v>60677.6</v>
       </c>
       <c r="D11" t="n">
-        <v>60744.1</v>
+        <v>63596.1</v>
       </c>
       <c r="E11" t="n">
-        <v>58360.5</v>
+        <v>61289</v>
       </c>
       <c r="F11" t="n">
-        <v>59906.25</v>
+        <v>62674.75</v>
       </c>
       <c r="G11" t="n">
-        <v>59075</v>
+        <v>61890.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>54840.5</v>
+        <v>58064.4</v>
       </c>
       <c r="D12" t="n">
-        <v>58095.9</v>
+        <v>61164.5</v>
       </c>
       <c r="E12" t="n">
-        <v>55563</v>
+        <v>58704.25</v>
       </c>
       <c r="F12" t="n">
-        <v>57168.5</v>
+        <v>60191.5</v>
       </c>
       <c r="G12" t="n">
-        <v>56288</v>
+        <v>59423.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>51917.8</v>
+        <v>55278.4</v>
       </c>
       <c r="D13" t="n">
-        <v>55305.8</v>
+        <v>58570.3</v>
       </c>
       <c r="E13" t="n">
-        <v>52626</v>
+        <v>55892.5</v>
       </c>
       <c r="F13" t="n">
-        <v>54286.25</v>
+        <v>57492.25</v>
       </c>
       <c r="G13" t="n">
-        <v>53375</v>
+        <v>56636</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>49545.8</v>
+        <v>52306.4</v>
       </c>
       <c r="D14" t="n">
-        <v>53204.5</v>
+        <v>55698.3</v>
       </c>
       <c r="E14" t="n">
-        <v>50354</v>
+        <v>52905.25</v>
       </c>
       <c r="F14" t="n">
-        <v>52124.25</v>
+        <v>54579.75</v>
       </c>
       <c r="G14" t="n">
-        <v>51158</v>
+        <v>53689.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>50279.9</v>
+        <v>49992</v>
       </c>
       <c r="D15" t="n">
-        <v>54050.4</v>
+        <v>53554.1</v>
       </c>
       <c r="E15" t="n">
-        <v>51095</v>
+        <v>50645</v>
       </c>
       <c r="F15" t="n">
-        <v>52911.25</v>
+        <v>52385.5</v>
       </c>
       <c r="G15" t="n">
-        <v>51914</v>
+        <v>51448</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>53154.9</v>
+        <v>50578.8</v>
       </c>
       <c r="D16" t="n">
-        <v>57038.1</v>
+        <v>54421.4</v>
       </c>
       <c r="E16" t="n">
-        <v>53935</v>
+        <v>51367.5</v>
       </c>
       <c r="F16" t="n">
-        <v>55858</v>
+        <v>53149</v>
       </c>
       <c r="G16" t="n">
-        <v>54779.5</v>
+        <v>52166</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>48130</v>
+        <v>53351</v>
       </c>
       <c r="D17" t="n">
-        <v>52357.1</v>
+        <v>57361.4</v>
       </c>
       <c r="E17" t="n">
-        <v>49027.25</v>
+        <v>54205</v>
       </c>
       <c r="F17" t="n">
-        <v>50973.5</v>
+        <v>56068</v>
       </c>
       <c r="G17" t="n">
-        <v>49920.5</v>
+        <v>55067.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>46193.9</v>
+        <v>48294.6</v>
       </c>
       <c r="D18" t="n">
-        <v>50650.7</v>
+        <v>52438.6</v>
       </c>
       <c r="E18" t="n">
-        <v>47145</v>
+        <v>49146</v>
       </c>
       <c r="F18" t="n">
-        <v>49235.25</v>
+        <v>51172.75</v>
       </c>
       <c r="G18" t="n">
-        <v>48137.5</v>
+        <v>50053.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>46251.3</v>
+        <v>46222.6</v>
       </c>
       <c r="D19" t="n">
-        <v>50805.7</v>
+        <v>50624.8</v>
       </c>
       <c r="E19" t="n">
-        <v>47249</v>
+        <v>47107</v>
       </c>
       <c r="F19" t="n">
-        <v>49391.75</v>
+        <v>49261.25</v>
       </c>
       <c r="G19" t="n">
-        <v>48260</v>
+        <v>48106</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>37837</v>
+        <v>46171.2</v>
       </c>
       <c r="D20" t="n">
-        <v>42749.1</v>
+        <v>50828.2</v>
       </c>
       <c r="E20" t="n">
-        <v>38951.75</v>
+        <v>47084.25</v>
       </c>
       <c r="F20" t="n">
-        <v>41279.25</v>
+        <v>49352</v>
       </c>
       <c r="G20" t="n">
-        <v>40019</v>
+        <v>48143</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>37631.5</v>
+        <v>47990.7</v>
       </c>
       <c r="D21" t="n">
-        <v>43022</v>
+        <v>52958</v>
       </c>
       <c r="E21" t="n">
-        <v>38859.25</v>
+        <v>49008.75</v>
       </c>
       <c r="F21" t="n">
-        <v>41423.25</v>
+        <v>51447.75</v>
       </c>
       <c r="G21" t="n">
-        <v>40061.5</v>
+        <v>50136.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="n">
-        <v>37353</v>
+        <v>37547.6</v>
       </c>
       <c r="D22" t="n">
-        <v>43193</v>
+        <v>42904.5</v>
       </c>
       <c r="E22" t="n">
-        <v>38608.25</v>
+        <v>38709.25</v>
       </c>
       <c r="F22" t="n">
-        <v>41336.25</v>
+        <v>41270.75</v>
       </c>
       <c r="G22" t="n">
-        <v>39892.5</v>
+        <v>39849</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="n">
-        <v>37074</v>
+        <v>37272.7</v>
       </c>
       <c r="D23" t="n">
-        <v>43220.4</v>
+        <v>42944.4</v>
       </c>
       <c r="E23" t="n">
-        <v>38287.25</v>
+        <v>38401</v>
       </c>
       <c r="F23" t="n">
-        <v>41310.75</v>
+        <v>41230</v>
       </c>
       <c r="G23" t="n">
-        <v>39723.5</v>
+        <v>39628.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" t="n">
-        <v>36803.5</v>
+        <v>36886.5</v>
       </c>
       <c r="D24" t="n">
-        <v>43630.4</v>
+        <v>43037.8</v>
       </c>
       <c r="E24" t="n">
-        <v>38235.25</v>
+        <v>38140.5</v>
       </c>
       <c r="F24" t="n">
-        <v>41508</v>
+        <v>41146.5</v>
       </c>
       <c r="G24" t="n">
-        <v>39743</v>
+        <v>39435.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="n">
-        <v>36598.4</v>
+        <v>36750.9</v>
       </c>
       <c r="D25" t="n">
-        <v>43971</v>
+        <v>43368.6</v>
       </c>
       <c r="E25" t="n">
-        <v>38122.75</v>
+        <v>38149</v>
       </c>
       <c r="F25" t="n">
-        <v>41642</v>
+        <v>41272.75</v>
       </c>
       <c r="G25" t="n">
-        <v>39784</v>
+        <v>39545.5</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" t="n">
-        <v>36335.9</v>
+        <v>36515.9</v>
       </c>
       <c r="D26" t="n">
-        <v>44207.5</v>
+        <v>43607.8</v>
       </c>
       <c r="E26" t="n">
-        <v>37916.75</v>
+        <v>37954.5</v>
       </c>
       <c r="F26" t="n">
-        <v>41688.25</v>
+        <v>41373</v>
       </c>
       <c r="G26" t="n">
-        <v>39685</v>
+        <v>39431</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
       <c r="C27" t="n">
-        <v>36193.4</v>
+        <v>36132.6</v>
       </c>
       <c r="D27" t="n">
-        <v>44792.9</v>
+        <v>43734.5</v>
       </c>
       <c r="E27" t="n">
-        <v>37883.5</v>
+        <v>37736.25</v>
       </c>
       <c r="F27" t="n">
-        <v>41897.25</v>
+        <v>41386.25</v>
       </c>
       <c r="G27" t="n">
-        <v>39798.5</v>
+        <v>39318.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="n">
-        <v>36026.9</v>
+        <v>36071.9</v>
       </c>
       <c r="D28" t="n">
-        <v>45098.5</v>
+        <v>44188.8</v>
       </c>
       <c r="E28" t="n">
-        <v>37769.25</v>
+        <v>37722</v>
       </c>
       <c r="F28" t="n">
-        <v>42055.25</v>
+        <v>41626.25</v>
       </c>
       <c r="G28" t="n">
-        <v>39863</v>
+        <v>39400</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="n">
+        <v>35779</v>
+      </c>
+      <c r="D29" t="n">
+        <v>44466.6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>37552.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>41764.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>39325</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4567,621 +4675,639 @@
         <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>35020</v>
+        <v>44364</v>
       </c>
       <c r="D3" t="n">
-        <v>35021</v>
+        <v>44364</v>
       </c>
       <c r="E3" t="n">
-        <v>35020</v>
+        <v>44364</v>
       </c>
       <c r="F3" t="n">
-        <v>35021</v>
+        <v>44364</v>
       </c>
       <c r="G3" t="n">
-        <v>35021</v>
+        <v>44364</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
-        <v>35075</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35078</v>
-      </c>
-      <c r="E4" t="n">
-        <v>35076</v>
-      </c>
-      <c r="F4" t="n">
-        <v>35077</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>35077</v>
-      </c>
-      <c r="H4"/>
+        <v>44364.3370385992</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>34735.5</v>
+        <v>35031</v>
       </c>
       <c r="D5" t="n">
-        <v>35136.1</v>
+        <v>35032</v>
       </c>
       <c r="E5" t="n">
-        <v>34832.75</v>
+        <v>35031</v>
       </c>
       <c r="F5" t="n">
-        <v>35031.25</v>
+        <v>35032</v>
       </c>
       <c r="G5" t="n">
-        <v>34937.5</v>
+        <v>35031</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>34379.8</v>
+        <v>34666</v>
       </c>
       <c r="D6" t="n">
-        <v>35205</v>
+        <v>35106</v>
       </c>
       <c r="E6" t="n">
-        <v>34585.75</v>
+        <v>34773.5</v>
       </c>
       <c r="F6" t="n">
-        <v>35011.25</v>
+        <v>34999.25</v>
       </c>
       <c r="G6" t="n">
-        <v>34787.5</v>
+        <v>34883</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>34219.6</v>
+        <v>34287.7</v>
       </c>
       <c r="D7" t="n">
-        <v>35512.1</v>
+        <v>35174.1</v>
       </c>
       <c r="E7" t="n">
-        <v>34532.75</v>
+        <v>34523.5</v>
       </c>
       <c r="F7" t="n">
-        <v>35213.5</v>
+        <v>34966</v>
       </c>
       <c r="G7" t="n">
-        <v>34857</v>
+        <v>34761</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" t="n">
-        <v>33911.7</v>
+        <v>34115.1</v>
       </c>
       <c r="D8" t="n">
-        <v>35802.4</v>
+        <v>35518.6</v>
       </c>
       <c r="E8" t="n">
-        <v>34387.5</v>
+        <v>34447.75</v>
       </c>
       <c r="F8" t="n">
-        <v>35315.25</v>
+        <v>35166</v>
       </c>
       <c r="G8" t="n">
-        <v>34871.5</v>
+        <v>34811.5</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" t="n">
-        <v>33611.7</v>
+        <v>33862.6</v>
       </c>
       <c r="D9" t="n">
-        <v>36059.6</v>
+        <v>35794.1</v>
       </c>
       <c r="E9" t="n">
-        <v>34210</v>
+        <v>34303.75</v>
       </c>
       <c r="F9" t="n">
-        <v>35387</v>
+        <v>35287.5</v>
       </c>
       <c r="G9" t="n">
-        <v>34815.5</v>
+        <v>34756</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>33499.5</v>
+        <v>33572</v>
       </c>
       <c r="D10" t="n">
-        <v>36505.3</v>
+        <v>36036.9</v>
       </c>
       <c r="E10" t="n">
-        <v>34199.75</v>
+        <v>34096.5</v>
       </c>
       <c r="F10" t="n">
-        <v>35654.75</v>
+        <v>35366</v>
       </c>
       <c r="G10" t="n">
-        <v>34982.5</v>
+        <v>34660.5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="n">
-        <v>33274.7</v>
+        <v>33438.9</v>
       </c>
       <c r="D11" t="n">
-        <v>36873.2</v>
+        <v>36501.9</v>
       </c>
       <c r="E11" t="n">
-        <v>34073.25</v>
+        <v>34039</v>
       </c>
       <c r="F11" t="n">
-        <v>35834.25</v>
+        <v>35610.5</v>
       </c>
       <c r="G11" t="n">
-        <v>34961.5</v>
+        <v>34748</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" t="n">
-        <v>33146.2</v>
+        <v>33196.4</v>
       </c>
       <c r="D12" t="n">
-        <v>37298</v>
+        <v>36787.7</v>
       </c>
       <c r="E12" t="n">
-        <v>34068.75</v>
+        <v>33944.25</v>
       </c>
       <c r="F12" t="n">
-        <v>36120.75</v>
+        <v>35795</v>
       </c>
       <c r="G12" t="n">
-        <v>35062</v>
+        <v>34733</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="n">
-        <v>33171.2</v>
+        <v>33081.8</v>
       </c>
       <c r="D13" t="n">
-        <v>37801.2</v>
+        <v>37208.9</v>
       </c>
       <c r="E13" t="n">
-        <v>34117.25</v>
+        <v>33931.25</v>
       </c>
       <c r="F13" t="n">
-        <v>36541.75</v>
+        <v>36051.25</v>
       </c>
       <c r="G13" t="n">
-        <v>35272.5</v>
+        <v>34785.5</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>33101</v>
+        <v>33039.5</v>
       </c>
       <c r="D14" t="n">
-        <v>38350.1</v>
+        <v>37731.9</v>
       </c>
       <c r="E14" t="n">
-        <v>34237.25</v>
+        <v>33994.75</v>
       </c>
       <c r="F14" t="n">
-        <v>36928.5</v>
+        <v>36343.75</v>
       </c>
       <c r="G14" t="n">
-        <v>35533</v>
+        <v>34958.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>33150.3</v>
+        <v>33090.6</v>
       </c>
       <c r="D15" t="n">
-        <v>39040.6</v>
+        <v>38388.4</v>
       </c>
       <c r="E15" t="n">
-        <v>34382.5</v>
+        <v>34116.5</v>
       </c>
       <c r="F15" t="n">
-        <v>37290.75</v>
+        <v>36716</v>
       </c>
       <c r="G15" t="n">
-        <v>35782.5</v>
+        <v>35245</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>33096.9</v>
+        <v>33197.5</v>
       </c>
       <c r="D16" t="n">
-        <v>39630</v>
+        <v>39102.8</v>
       </c>
       <c r="E16" t="n">
-        <v>34438</v>
+        <v>34260.75</v>
       </c>
       <c r="F16" t="n">
-        <v>37663.25</v>
+        <v>37137.75</v>
       </c>
       <c r="G16" t="n">
-        <v>35989</v>
+        <v>35527</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>33181.6</v>
+        <v>33110.4</v>
       </c>
       <c r="D17" t="n">
-        <v>40184.2</v>
+        <v>39759.5</v>
       </c>
       <c r="E17" t="n">
-        <v>34567</v>
+        <v>34362.5</v>
       </c>
       <c r="F17" t="n">
-        <v>38008.25</v>
+        <v>37526.5</v>
       </c>
       <c r="G17" t="n">
-        <v>36190</v>
+        <v>35757.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="n">
-        <v>33119.4</v>
+        <v>33157.3</v>
       </c>
       <c r="D18" t="n">
-        <v>40448.6</v>
+        <v>40238.6</v>
       </c>
       <c r="E18" t="n">
-        <v>34555.5</v>
+        <v>34505.75</v>
       </c>
       <c r="F18" t="n">
-        <v>38229.75</v>
+        <v>37856</v>
       </c>
       <c r="G18" t="n">
-        <v>36261.5</v>
+        <v>35993.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>32828.4</v>
+        <v>33011.5</v>
       </c>
       <c r="D19" t="n">
-        <v>40529.2</v>
+        <v>40515.9</v>
       </c>
       <c r="E19" t="n">
-        <v>34388</v>
+        <v>34514.75</v>
       </c>
       <c r="F19" t="n">
-        <v>38209.5</v>
+        <v>38022.25</v>
       </c>
       <c r="G19" t="n">
-        <v>36094.5</v>
+        <v>36087.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="n">
-        <v>32694.3</v>
+        <v>32711.9</v>
       </c>
       <c r="D20" t="n">
-        <v>40841.5</v>
+        <v>40651.4</v>
       </c>
       <c r="E20" t="n">
-        <v>34350.5</v>
+        <v>34310.75</v>
       </c>
       <c r="F20" t="n">
-        <v>38357.5</v>
+        <v>38029.5</v>
       </c>
       <c r="G20" t="n">
-        <v>36199.5</v>
+        <v>36012.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>32371.8</v>
+        <v>32543.3</v>
       </c>
       <c r="D21" t="n">
-        <v>40793</v>
+        <v>41017.1</v>
       </c>
       <c r="E21" t="n">
-        <v>34049.25</v>
+        <v>34263.25</v>
       </c>
       <c r="F21" t="n">
-        <v>38183.75</v>
+        <v>38159.5</v>
       </c>
       <c r="G21" t="n">
-        <v>36000.5</v>
+        <v>36065.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>31958.8</v>
+        <v>32128.9</v>
       </c>
       <c r="D22" t="n">
-        <v>40811.7</v>
+        <v>41029.3</v>
       </c>
       <c r="E22" t="n">
-        <v>33721.25</v>
+        <v>33975.75</v>
       </c>
       <c r="F22" t="n">
-        <v>38026.75</v>
+        <v>38071.25</v>
       </c>
       <c r="G22" t="n">
-        <v>35734.5</v>
+        <v>35877.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>31394.8</v>
+        <v>31803.6</v>
       </c>
       <c r="D23" t="n">
-        <v>40466.3</v>
+        <v>40754.6</v>
       </c>
       <c r="E23" t="n">
-        <v>33286.5</v>
+        <v>33672.5</v>
       </c>
       <c r="F23" t="n">
-        <v>37698.5</v>
+        <v>37898.75</v>
       </c>
       <c r="G23" t="n">
-        <v>35303</v>
+        <v>35674.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>30938.2</v>
+        <v>31320.5</v>
       </c>
       <c r="D24" t="n">
-        <v>40240.3</v>
+        <v>40498.4</v>
       </c>
       <c r="E24" t="n">
-        <v>32770.5</v>
+        <v>33274.5</v>
       </c>
       <c r="F24" t="n">
-        <v>37250.75</v>
+        <v>37625.25</v>
       </c>
       <c r="G24" t="n">
-        <v>34851</v>
+        <v>35275.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>30343.5</v>
+        <v>30790</v>
       </c>
       <c r="D25" t="n">
-        <v>39929.2</v>
+        <v>40220</v>
       </c>
       <c r="E25" t="n">
-        <v>32213</v>
+        <v>32782.75</v>
       </c>
       <c r="F25" t="n">
-        <v>36856.5</v>
+        <v>37266.5</v>
       </c>
       <c r="G25" t="n">
-        <v>34356</v>
+        <v>34818.5</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>29698.7</v>
+        <v>30289.9</v>
       </c>
       <c r="D26" t="n">
-        <v>39450.1</v>
+        <v>39934.1</v>
       </c>
       <c r="E26" t="n">
-        <v>31671.25</v>
+        <v>32320</v>
       </c>
       <c r="F26" t="n">
-        <v>36299</v>
+        <v>36836.25</v>
       </c>
       <c r="G26" t="n">
-        <v>33874</v>
+        <v>34340</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>28691.5</v>
+        <v>29804.9</v>
       </c>
       <c r="D27" t="n">
-        <v>38463.6</v>
+        <v>39474.3</v>
       </c>
       <c r="E27" t="n">
-        <v>30778.25</v>
+        <v>31748.25</v>
       </c>
       <c r="F27" t="n">
-        <v>35520.5</v>
+        <v>36318</v>
       </c>
       <c r="G27" t="n">
-        <v>32977</v>
+        <v>33804.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>27964.8</v>
+        <v>28904.6</v>
       </c>
       <c r="D28" t="n">
-        <v>37802.1</v>
+        <v>38567</v>
       </c>
       <c r="E28" t="n">
-        <v>30114.75</v>
+        <v>30922</v>
       </c>
       <c r="F28" t="n">
-        <v>34935.25</v>
+        <v>35389.5</v>
       </c>
       <c r="G28" t="n">
-        <v>32344.5</v>
+        <v>32945</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28296</v>
+      </c>
+      <c r="D29" t="n">
+        <v>38038.9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>30214.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>34729.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>32314.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5236,621 +5362,639 @@
         <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>141.9</v>
+        <v>168</v>
       </c>
       <c r="D3" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E3" t="n">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F3" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G3" t="n">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="n">
-        <v>131</v>
-      </c>
-      <c r="D4" t="n">
-        <v>163</v>
-      </c>
-      <c r="E4" t="n">
-        <v>137</v>
-      </c>
-      <c r="F4" t="n">
-        <v>155</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>146</v>
-      </c>
-      <c r="H4"/>
+        <v>168.031765672152</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D5" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E5" t="n">
-        <v>130.75</v>
+        <v>147</v>
       </c>
       <c r="F5" t="n">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G5" t="n">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D6" t="n">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E6" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F6" t="n">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G6" t="n">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D7" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E7" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F7" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G7" t="n">
-        <v>128.5</v>
+        <v>140</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D8" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E8" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F8" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G8" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D9" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E9" t="n">
-        <v>109</v>
+        <v>119.75</v>
       </c>
       <c r="F9" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D10" t="n">
-        <v>146</v>
+        <v>155.1</v>
       </c>
       <c r="E10" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G10" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D11" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F11" t="n">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G11" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D12" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E12" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F12" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G12" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D13" t="n">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E13" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F13" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G13" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D14" t="n">
-        <v>133.1</v>
+        <v>142</v>
       </c>
       <c r="E14" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F14" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G14" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D15" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E15" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F15" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G15" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D16" t="n">
-        <v>130.1</v>
+        <v>139</v>
       </c>
       <c r="E16" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F16" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G16" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D17" t="n">
-        <v>128.1</v>
+        <v>137</v>
       </c>
       <c r="E17" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F17" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G17" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D18" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E18" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F18" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G18" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
-        <v>123.1</v>
+        <v>132.1</v>
       </c>
       <c r="E19" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F19" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G19" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>60.9</v>
+        <v>67</v>
       </c>
       <c r="D20" t="n">
-        <v>119.1</v>
+        <v>129</v>
       </c>
       <c r="E20" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G20" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="C21" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E21" t="n">
-        <v>67.75</v>
+        <v>75</v>
       </c>
       <c r="F21" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G21" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>56.9</v>
+        <v>62</v>
       </c>
       <c r="D22" t="n">
-        <v>115.1</v>
+        <v>123</v>
       </c>
       <c r="E22" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F22" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G22" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D23" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E23" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F23" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G23" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
       <c r="C24" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D24" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E24" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F24" t="n">
-        <v>92</v>
+        <v>98.25</v>
       </c>
       <c r="G24" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="n">
-        <v>50</v>
+        <v>54.9</v>
       </c>
       <c r="D25" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F25" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G25" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D26" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E26" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F26" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G26" t="n">
-        <v>71</v>
+        <v>75.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
       </c>
       <c r="C27" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E27" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G27" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
       <c r="C28" t="n">
-        <v>43.9</v>
+        <v>48</v>
       </c>
       <c r="D28" t="n">
-        <v>100</v>
+        <v>108.1</v>
       </c>
       <c r="E28" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F28" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G28" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="n">
+        <v>47</v>
+      </c>
+      <c r="D29" t="n">
+        <v>106</v>
+      </c>
+      <c r="E29" t="n">
+        <v>56</v>
+      </c>
+      <c r="F29" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>69</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5905,621 +6049,639 @@
         <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00300849491373558</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00356590508142157</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00314280022542732</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00341871785492858</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003274009614245</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.00283143719525957</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.00357683850675523</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00298399354660676</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00338024074139678</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.00318494421576901</v>
-      </c>
-      <c r="H4"/>
+        <v>0.00332243181798927</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00271311330857877</v>
+        <v>0.00292958374427015</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0036062016909105</v>
+        <v>0.00368169842149972</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00288089708805591</v>
+        <v>0.00308654753083428</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00333732892253735</v>
+        <v>0.00348236836120855</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00308492044334193</v>
+        <v>0.00328735332347708</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00258607618035085</v>
+        <v>0.00281128947311925</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00356473533803881</v>
+        <v>0.00371141766823977</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00279001326659811</v>
+        <v>0.0029828330077706</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00327547056596231</v>
+        <v>0.00344177793701489</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00300328005161013</v>
+        <v>0.00318855928789064</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00250889120720868</v>
+        <v>0.00267977244395685</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00353758175215061</v>
+        <v>0.00367128210081906</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00269121095472949</v>
+        <v>0.00289057490762553</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00323340127288916</v>
+        <v>0.00339859260144229</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00292353984085823</v>
+        <v>0.0031078154773262</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00237961978611844</v>
+        <v>0.0026096835283266</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00350459817272479</v>
+        <v>0.00364917689952</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00260552227108813</v>
+        <v>0.0028011090040947</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00314819752521226</v>
+        <v>0.00334314015762541</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00285872220994741</v>
+        <v>0.00302957415240164</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00232332622194259</v>
+        <v>0.00246909586489115</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00352648042982987</v>
+        <v>0.00364052172671616</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00252525131236328</v>
+        <v>0.00270753438792415</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00312427671710774</v>
+        <v>0.00326539051272305</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00280391938171743</v>
+        <v>0.00296850833349281</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0022284437110004</v>
+        <v>0.00242089809086936</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00348173692126857</v>
+        <v>0.00363625805304436</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00247051551571763</v>
+        <v>0.00262365568435413</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00308232476679273</v>
+        <v>0.00324531968497867</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00274127579355795</v>
+        <v>0.00291489448884166</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00216669310582324</v>
+        <v>0.0023253347176341</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00345621451833483</v>
+        <v>0.00357643658000815</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00240829454451543</v>
+        <v>0.00257109311211143</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00302193418227312</v>
+        <v>0.00319538979948919</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002673977510678</v>
+        <v>0.00285455682031977</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00210334715115055</v>
+        <v>0.0022638861470056</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00343263834216827</v>
+        <v>0.0035773156371913</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0023574515703827</v>
+        <v>0.00251166419784403</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00297565055691821</v>
+        <v>0.00313896366790226</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00261870597974851</v>
+        <v>0.00278069463304824</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00203692530830261</v>
+        <v>0.00219003703118636</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00335178013638918</v>
+        <v>0.00353999683110564</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00229226955375996</v>
+        <v>0.00246506818778311</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00293862210825658</v>
+        <v>0.00308002726379421</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00254718655222342</v>
+        <v>0.00271985537151957</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00196761545310556</v>
+        <v>0.00213682408639727</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00332908814421205</v>
+        <v>0.00349233511916096</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00221212770767034</v>
+        <v>0.00238609738877065</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00289487467115372</v>
+        <v>0.00304864701132843</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0024994105701982</v>
+        <v>0.00265460466578463</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00191001836532624</v>
+        <v>0.0020547463148345</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00332122378916808</v>
+        <v>0.00346366301647364</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00215440185158453</v>
+        <v>0.00231209260370541</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00282492048327793</v>
+        <v>0.00300148896760099</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00243891725302152</v>
+        <v>0.00260815453871222</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00187294096954606</v>
+        <v>0.00199298781795985</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00327879273271222</v>
+        <v>0.0034480918124761</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00208979310212197</v>
+        <v>0.00225088093335845</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00279672570932414</v>
+        <v>0.00293743209531938</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00241074609573656</v>
+        <v>0.0025450167076301</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0017960441199333</v>
+        <v>0.00196644483717137</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0032544881184114</v>
+        <v>0.00340309792140469</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00202394121589445</v>
+        <v>0.00218568244750153</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00276768313410704</v>
+        <v>0.00291492339118614</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0023428973830386</v>
+        <v>0.00250623418630229</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00174002741532585</v>
+        <v>0.00187383761832764</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00319372945530938</v>
+        <v>0.00338717079766235</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00196732342912585</v>
+        <v>0.00211599638748103</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00272815499751766</v>
+        <v>0.00287917949143595</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00229741341918698</v>
+        <v>0.00244493668753147</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00166381542413349</v>
+        <v>0.00181605750633522</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00317080707914738</v>
+        <v>0.00331580690415634</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00191617359296999</v>
+        <v>0.00206197961055585</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00269056872822047</v>
+        <v>0.00284185435877259</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00225903624011767</v>
+        <v>0.00239029243270126</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00162643251607388</v>
+        <v>0.00174407811031451</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00312889584958812</v>
+        <v>0.00329574425843561</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00186321862884255</v>
+        <v>0.00200528231682411</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00263750237285333</v>
+        <v>0.00278864422137777</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00220775331037089</v>
+        <v>0.0023567480557191</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0015882554077669</v>
+        <v>0.00170738665397504</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0030709165185948</v>
+        <v>0.0032698021660802</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00182052987536157</v>
+        <v>0.00195206486973876</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00259359329737557</v>
+        <v>0.00274225790625687</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00216447525028486</v>
+        <v>0.00230321994187228</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00154690180174655</v>
+        <v>0.00166179386722344</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0030292234249312</v>
+        <v>0.00319025585192994</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00177041763740249</v>
+        <v>0.001911254328384</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00257059063815324</v>
+        <v>0.00269401896226154</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00214253648289908</v>
+        <v>0.00227364393073706</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00150036233192839</v>
+        <v>0.00161926680852593</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00300638732746969</v>
+        <v>0.00315151941204231</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0017162661521346</v>
+        <v>0.00185986531072624</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00251312086113558</v>
+        <v>0.00268220656028771</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00209698580814927</v>
+        <v>0.002235726367663</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00144049274950147</v>
+        <v>0.0015789555703957</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00293746499116706</v>
+        <v>0.00313711432962425</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00167893496433147</v>
+        <v>0.00180647463374018</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00248881110267341</v>
+        <v>0.00261857556623546</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00205211817702202</v>
+        <v>0.00219962477701305</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00141034953209337</v>
+        <v>0.0015167329698927</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00288765595922439</v>
+        <v>0.00306652960496549</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00163585858767787</v>
+        <v>0.00176518230155542</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00244535830464691</v>
+        <v>0.00259012271829357</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00201278488103602</v>
+        <v>0.00214580175648246</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00135488826723041</v>
+        <v>0.00147569426918111</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00289829211091156</v>
+        <v>0.00300723779243536</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00160726278439163</v>
+        <v>0.00171419186948824</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00239130459162282</v>
+        <v>0.00254585767534517</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00195904575234936</v>
+        <v>0.00209848660299079</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00132085195663781</v>
+        <v>0.00142361913353899</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00283935488805214</v>
+        <v>0.0030222292728496</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00157657685418263</v>
+        <v>0.00168171631324961</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002350252296577</v>
+        <v>0.00248970687521738</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00191921708059459</v>
+        <v>0.0020477289353926</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>49</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00127045135370524</v>
+        <v>0.00138895126736001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00277014825410485</v>
+        <v>0.00295611633910233</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00152249700664743</v>
+        <v>0.00165192329223025</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00231565600043362</v>
+        <v>0.0024639248289832</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00187330642388034</v>
+        <v>0.00200509929738598</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.00133319541748581</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.00289356750647944</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00159956725184588</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00241776967456108</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00195974468413247</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6574,621 +6736,639 @@
         <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>5543</v>
+        <v>7658</v>
       </c>
       <c r="D3" t="n">
-        <v>5548</v>
+        <v>7658</v>
       </c>
       <c r="E3" t="n">
-        <v>5544</v>
+        <v>7658</v>
       </c>
       <c r="F3" t="n">
-        <v>5547</v>
+        <v>7658</v>
       </c>
       <c r="G3" t="n">
-        <v>5546</v>
+        <v>7658</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="n">
-        <v>3065</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7610.7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4171.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6436.25</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>5370</v>
-      </c>
-      <c r="H4"/>
+        <v>10387.91978</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>2370.5</v>
+        <v>2978.1</v>
       </c>
       <c r="D5" t="n">
-        <v>8136.3</v>
+        <v>7990.4</v>
       </c>
       <c r="E5" t="n">
-        <v>3756.75</v>
+        <v>4181.75</v>
       </c>
       <c r="F5" t="n">
-        <v>6730.75</v>
+        <v>6775.75</v>
       </c>
       <c r="G5" t="n">
-        <v>5193.5</v>
+        <v>5441.5</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>2050</v>
+        <v>2375.8</v>
       </c>
       <c r="D6" t="n">
-        <v>8511.5</v>
+        <v>8525.4</v>
       </c>
       <c r="E6" t="n">
-        <v>3605.75</v>
+        <v>3805.25</v>
       </c>
       <c r="F6" t="n">
-        <v>6895.25</v>
+        <v>6956.5</v>
       </c>
       <c r="G6" t="n">
-        <v>5194.5</v>
+        <v>5524</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>1599.5</v>
+        <v>1841.1</v>
       </c>
       <c r="D7" t="n">
-        <v>8845</v>
+        <v>8979.1</v>
       </c>
       <c r="E7" t="n">
-        <v>3342.5</v>
+        <v>3417.5</v>
       </c>
       <c r="F7" t="n">
-        <v>7007.75</v>
+        <v>7114.25</v>
       </c>
       <c r="G7" t="n">
-        <v>5205</v>
+        <v>5098.5</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>1405</v>
+        <v>1783.5</v>
       </c>
       <c r="D8" t="n">
-        <v>9138.4</v>
+        <v>9390.3</v>
       </c>
       <c r="E8" t="n">
-        <v>3364</v>
+        <v>3304.25</v>
       </c>
       <c r="F8" t="n">
-        <v>7165.5</v>
+        <v>7099.75</v>
       </c>
       <c r="G8" t="n">
-        <v>5018.5</v>
+        <v>5066</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="C9" t="n">
-        <v>1455.4</v>
+        <v>1390.7</v>
       </c>
       <c r="D9" t="n">
-        <v>9221.9</v>
+        <v>9433.5</v>
       </c>
       <c r="E9" t="n">
-        <v>3173.25</v>
+        <v>3277.5</v>
       </c>
       <c r="F9" t="n">
-        <v>7353.75</v>
+        <v>7149.5</v>
       </c>
       <c r="G9" t="n">
-        <v>5197.5</v>
+        <v>5072.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>1257.3</v>
+        <v>1314.9</v>
       </c>
       <c r="D10" t="n">
-        <v>9265.1</v>
+        <v>9555.3</v>
       </c>
       <c r="E10" t="n">
-        <v>3199.5</v>
+        <v>3109</v>
       </c>
       <c r="F10" t="n">
-        <v>7191.25</v>
+        <v>7074</v>
       </c>
       <c r="G10" t="n">
-        <v>5209</v>
+        <v>4932</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11" t="n">
-        <v>1146.6</v>
+        <v>1170</v>
       </c>
       <c r="D11" t="n">
-        <v>9306.9</v>
+        <v>9391.1</v>
       </c>
       <c r="E11" t="n">
-        <v>2963.5</v>
+        <v>3083.25</v>
       </c>
       <c r="F11" t="n">
-        <v>7371</v>
+        <v>7182.75</v>
       </c>
       <c r="G11" t="n">
-        <v>5174</v>
+        <v>5022.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12" t="n">
-        <v>1222.7</v>
+        <v>1116.7</v>
       </c>
       <c r="D12" t="n">
-        <v>9421.2</v>
+        <v>9740.1</v>
       </c>
       <c r="E12" t="n">
-        <v>3034.25</v>
+        <v>2924.25</v>
       </c>
       <c r="F12" t="n">
-        <v>7281.5</v>
+        <v>7124.5</v>
       </c>
       <c r="G12" t="n">
-        <v>4964.5</v>
+        <v>4988</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="n">
-        <v>938.7</v>
+        <v>897.2</v>
       </c>
       <c r="D13" t="n">
-        <v>9625.2</v>
+        <v>9594.2</v>
       </c>
       <c r="E13" t="n">
-        <v>3016.75</v>
+        <v>2934.75</v>
       </c>
       <c r="F13" t="n">
-        <v>7176</v>
+        <v>7106</v>
       </c>
       <c r="G13" t="n">
-        <v>5078.5</v>
+        <v>4841.5</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14" t="n">
-        <v>933.7</v>
+        <v>623.3</v>
       </c>
       <c r="D14" t="n">
-        <v>9796.1</v>
+        <v>9818.7</v>
       </c>
       <c r="E14" t="n">
-        <v>2837.75</v>
+        <v>2838</v>
       </c>
       <c r="F14" t="n">
-        <v>7257</v>
+        <v>7270.5</v>
       </c>
       <c r="G14" t="n">
-        <v>5043</v>
+        <v>4926.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="n">
-        <v>864.8</v>
+        <v>781</v>
       </c>
       <c r="D15" t="n">
-        <v>9712.7</v>
+        <v>9999.9</v>
       </c>
       <c r="E15" t="n">
-        <v>2835.25</v>
+        <v>2672.75</v>
       </c>
       <c r="F15" t="n">
-        <v>7157</v>
+        <v>7139</v>
       </c>
       <c r="G15" t="n">
-        <v>4843</v>
+        <v>4916</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>863</v>
+        <v>907.6</v>
       </c>
       <c r="D16" t="n">
-        <v>9623.4</v>
+        <v>9551.4</v>
       </c>
       <c r="E16" t="n">
-        <v>2894.5</v>
+        <v>2690.5</v>
       </c>
       <c r="F16" t="n">
-        <v>7147.5</v>
+        <v>7042.25</v>
       </c>
       <c r="G16" t="n">
-        <v>4864.5</v>
+        <v>4839.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
       <c r="C17" t="n">
-        <v>1172</v>
+        <v>986.7</v>
       </c>
       <c r="D17" t="n">
-        <v>9843</v>
+        <v>9586.3</v>
       </c>
       <c r="E17" t="n">
-        <v>2965.75</v>
+        <v>2789</v>
       </c>
       <c r="F17" t="n">
-        <v>7295.5</v>
+        <v>7110.5</v>
       </c>
       <c r="G17" t="n">
-        <v>4979</v>
+        <v>4739</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="n">
-        <v>912.400000000001</v>
+        <v>675.7</v>
       </c>
       <c r="D18" t="n">
-        <v>9601.8</v>
+        <v>9726.1</v>
       </c>
       <c r="E18" t="n">
-        <v>3026.75</v>
+        <v>2594</v>
       </c>
       <c r="F18" t="n">
-        <v>7253.75</v>
+        <v>7070</v>
       </c>
       <c r="G18" t="n">
-        <v>4964.5</v>
+        <v>4647</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>924.5</v>
+        <v>564.6</v>
       </c>
       <c r="D19" t="n">
-        <v>9665.5</v>
+        <v>9329.3</v>
       </c>
       <c r="E19" t="n">
-        <v>3024.5</v>
+        <v>2760</v>
       </c>
       <c r="F19" t="n">
-        <v>7239.5</v>
+        <v>6939</v>
       </c>
       <c r="G19" t="n">
-        <v>4997.5</v>
+        <v>4765</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="n">
-        <v>992.3</v>
+        <v>733.2</v>
       </c>
       <c r="D20" t="n">
-        <v>9767.7</v>
+        <v>9489.1</v>
       </c>
       <c r="E20" t="n">
-        <v>3086.5</v>
+        <v>2640</v>
       </c>
       <c r="F20" t="n">
-        <v>7223.25</v>
+        <v>6996.25</v>
       </c>
       <c r="G20" t="n">
-        <v>5036</v>
+        <v>4806.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>1053.8</v>
+        <v>692</v>
       </c>
       <c r="D21" t="n">
-        <v>10204.5</v>
+        <v>9221.8</v>
       </c>
       <c r="E21" t="n">
-        <v>2984.5</v>
+        <v>2794</v>
       </c>
       <c r="F21" t="n">
-        <v>7179</v>
+        <v>7006.5</v>
       </c>
       <c r="G21" t="n">
-        <v>5170</v>
+        <v>4833</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>1099</v>
+        <v>1036.1</v>
       </c>
       <c r="D22" t="n">
-        <v>9859</v>
+        <v>9645</v>
       </c>
       <c r="E22" t="n">
-        <v>3029.75</v>
+        <v>2853.75</v>
       </c>
       <c r="F22" t="n">
-        <v>7213.75</v>
+        <v>6841.5</v>
       </c>
       <c r="G22" t="n">
-        <v>5010.5</v>
+        <v>4853</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="n">
-        <v>815.3</v>
+        <v>1077.3</v>
       </c>
       <c r="D23" t="n">
-        <v>10055.8</v>
+        <v>9962.3</v>
       </c>
       <c r="E23" t="n">
-        <v>2867.75</v>
+        <v>2777</v>
       </c>
       <c r="F23" t="n">
-        <v>7219.25</v>
+        <v>7172.25</v>
       </c>
       <c r="G23" t="n">
-        <v>5112</v>
+        <v>4642</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>801.9</v>
+        <v>811.1</v>
       </c>
       <c r="D24" t="n">
-        <v>10097.7</v>
+        <v>10174.9</v>
       </c>
       <c r="E24" t="n">
-        <v>2849.5</v>
+        <v>2618.25</v>
       </c>
       <c r="F24" t="n">
-        <v>7484.75</v>
+        <v>7299.5</v>
       </c>
       <c r="G24" t="n">
-        <v>4958</v>
+        <v>4730.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>748.9</v>
+        <v>838.2</v>
       </c>
       <c r="D25" t="n">
-        <v>10349.5</v>
+        <v>10098.7</v>
       </c>
       <c r="E25" t="n">
-        <v>2817.75</v>
+        <v>2706.5</v>
       </c>
       <c r="F25" t="n">
-        <v>7283.75</v>
+        <v>7129</v>
       </c>
       <c r="G25" t="n">
-        <v>4907</v>
+        <v>4818</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="n">
-        <v>764.7</v>
+        <v>666.4</v>
       </c>
       <c r="D26" t="n">
-        <v>9949</v>
+        <v>9662.3</v>
       </c>
       <c r="E26" t="n">
-        <v>2595.25</v>
+        <v>2493.75</v>
       </c>
       <c r="F26" t="n">
-        <v>7386</v>
+        <v>6949.25</v>
       </c>
       <c r="G26" t="n">
-        <v>4963</v>
+        <v>4672.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
       <c r="C27" t="n">
-        <v>944.8</v>
+        <v>534.5</v>
       </c>
       <c r="D27" t="n">
-        <v>10150.2</v>
+        <v>9834.2</v>
       </c>
       <c r="E27" t="n">
-        <v>2692</v>
+        <v>2529</v>
       </c>
       <c r="F27" t="n">
-        <v>7371.5</v>
+        <v>7090.25</v>
       </c>
       <c r="G27" t="n">
-        <v>5045</v>
+        <v>4680</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="n">
-        <v>873.3</v>
+        <v>747.9</v>
       </c>
       <c r="D28" t="n">
-        <v>9987</v>
+        <v>9842.1</v>
       </c>
       <c r="E28" t="n">
-        <v>2879.5</v>
+        <v>2481.5</v>
       </c>
       <c r="F28" t="n">
-        <v>7371.25</v>
+        <v>7047.25</v>
       </c>
       <c r="G28" t="n">
-        <v>4926.5</v>
+        <v>4741</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="n">
+        <v>408</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9680.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2673.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7126.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4789.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
